--- a/BackTest/2019-11-20 BackTest WET.xlsx
+++ b/BackTest/2019-11-20 BackTest WET.xlsx
@@ -1606,20 +1606,14 @@
         <v>5.159999999999992</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,20 +1641,14 @@
         <v>5.169999999999992</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1688,20 +1676,14 @@
         <v>5.189999999999992</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1729,20 +1711,14 @@
         <v>5.169999999999991</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.16</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,20 +1746,14 @@
         <v>5.169999999999991</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1811,20 +1781,14 @@
         <v>5.184999999999991</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.16</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1852,20 +1816,14 @@
         <v>5.179999999999991</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.18</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1899,12 +1857,12 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.23</v>
+        <v>5.18</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1940,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
@@ -1981,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
@@ -2016,14 +1974,12 @@
         <v>5.174999999999992</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.18</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2057,14 +2013,12 @@
         <v>5.184999999999992</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.2</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2104,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
@@ -2145,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
@@ -2221,14 +2175,12 @@
         <v>5.314999999999991</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>5.31</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2262,14 +2214,12 @@
         <v>5.314999999999991</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2303,14 +2253,12 @@
         <v>5.319999999999991</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>5.28</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2344,14 +2292,12 @@
         <v>5.324999999999991</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2385,14 +2331,12 @@
         <v>5.349999999999991</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.34</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2426,14 +2370,12 @@
         <v>5.37499999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2467,14 +2409,12 @@
         <v>5.43499999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5.38</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2508,14 +2448,12 @@
         <v>5.519999999999991</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>5.49</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2549,14 +2487,12 @@
         <v>5.50999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>5.53</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -3877,14 +3813,12 @@
         <v>5.289999999999996</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>5.29</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3918,14 +3852,12 @@
         <v>5.279999999999996</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3959,14 +3891,12 @@
         <v>5.269999999999996</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -4000,14 +3930,12 @@
         <v>5.269999999999996</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4041,14 +3969,12 @@
         <v>5.269999999999996</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4082,14 +4008,12 @@
         <v>5.204999999999997</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>5.28</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4123,14 +4047,12 @@
         <v>5.169999999999996</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>5.2</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4164,14 +4086,12 @@
         <v>5.254999999999995</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>5.31</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4205,14 +4125,12 @@
         <v>5.269999999999996</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4246,14 +4164,12 @@
         <v>5.229999999999997</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4287,14 +4203,12 @@
         <v>5.229999999999997</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>5.23</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4328,14 +4242,12 @@
         <v>5.264999999999997</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4369,14 +4281,12 @@
         <v>5.304999999999996</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>5.28</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4410,14 +4320,12 @@
         <v>5.309999999999995</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>5.3</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4451,14 +4359,12 @@
         <v>5.279999999999996</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4492,14 +4398,12 @@
         <v>5.244999999999996</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4533,14 +4437,12 @@
         <v>5.244999999999996</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4574,14 +4476,12 @@
         <v>5.279999999999995</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>5.31</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4615,14 +4515,12 @@
         <v>5.289999999999995</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4656,14 +4554,12 @@
         <v>5.289999999999996</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>5.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4697,14 +4593,12 @@
         <v>5.314999999999996</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>5.32</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4738,14 +4632,12 @@
         <v>5.344999999999997</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>5.37</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4779,14 +4671,12 @@
         <v>5.379999999999997</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>5.39</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4820,14 +4710,12 @@
         <v>5.389999999999997</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>5.39</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4861,14 +4749,12 @@
         <v>5.389999999999997</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>5.39</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4902,14 +4788,12 @@
         <v>5.389999999999997</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>5.39</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4943,14 +4827,12 @@
         <v>5.414999999999997</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>5.44</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4984,14 +4866,12 @@
         <v>5.439999999999998</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>5.44</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -6078,14 +5958,12 @@
         <v>5.299999999999994</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>5.29</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -6119,14 +5997,12 @@
         <v>5.274999999999993</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>5.28</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -6160,14 +6036,12 @@
         <v>5.269999999999992</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>5.27</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -6201,14 +6075,12 @@
         <v>5.274999999999993</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>5.28</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -6242,14 +6114,12 @@
         <v>5.279999999999994</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>5.28</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -6283,14 +6153,12 @@
         <v>5.294999999999993</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>5.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6324,14 +6192,12 @@
         <v>5.379999999999992</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>5.36</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6365,14 +6231,12 @@
         <v>5.484999999999992</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>5.52</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6406,14 +6270,12 @@
         <v>5.524999999999993</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>5.52</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6606,18 +6468,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6645,15 +6505,11 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6544,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6727,11 +6579,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6766,11 +6614,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6805,11 +6649,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6844,11 +6684,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6879,16 +6715,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7756,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7896,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -8001,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -8036,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -8071,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -8106,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest WET.xlsx
+++ b/BackTest/2019-11-20 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C2" t="n">
         <v>5.56</v>
       </c>
-      <c r="C2" t="n">
-        <v>5.53</v>
-      </c>
       <c r="D2" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E2" t="n">
         <v>5.56</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.53</v>
-      </c>
       <c r="F2" t="n">
-        <v>457364.2293</v>
+        <v>290595.2765</v>
       </c>
       <c r="G2" t="n">
-        <v>5.545</v>
+        <v>5.431666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C3" t="n">
         <v>5.53</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.6</v>
-      </c>
       <c r="D3" t="n">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
       <c r="E3" t="n">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="F3" t="n">
-        <v>30623.081</v>
+        <v>457364.2293</v>
       </c>
       <c r="G3" t="n">
-        <v>5.565</v>
+        <v>5.437499999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>5.52</v>
       </c>
       <c r="F4" t="n">
-        <v>20099</v>
+        <v>30623.081</v>
       </c>
       <c r="G4" t="n">
-        <v>5.599999999999998</v>
+        <v>5.445666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.57</v>
+        <v>5.53</v>
       </c>
       <c r="C5" t="n">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="D5" t="n">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5.57</v>
+        <v>5.52</v>
       </c>
       <c r="F5" t="n">
-        <v>99</v>
+        <v>20099</v>
       </c>
       <c r="G5" t="n">
-        <v>5.584999999999998</v>
+        <v>5.453833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.52</v>
+        <v>5.57</v>
       </c>
       <c r="C6" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="D6" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="E6" t="n">
-        <v>5.52</v>
+        <v>5.57</v>
       </c>
       <c r="F6" t="n">
-        <v>115298</v>
+        <v>99</v>
       </c>
       <c r="G6" t="n">
-        <v>5.559999999999998</v>
+        <v>5.459333333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.46</v>
+        <v>5.52</v>
       </c>
       <c r="C7" t="n">
-        <v>5.51</v>
+        <v>5.55</v>
       </c>
       <c r="D7" t="n">
-        <v>5.53</v>
+        <v>5.55</v>
       </c>
       <c r="E7" t="n">
-        <v>5.4</v>
+        <v>5.52</v>
       </c>
       <c r="F7" t="n">
-        <v>1200199.749</v>
+        <v>115298</v>
       </c>
       <c r="G7" t="n">
-        <v>5.529999999999998</v>
+        <v>5.463833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.63</v>
+        <v>5.46</v>
       </c>
       <c r="C8" t="n">
-        <v>5.63</v>
+        <v>5.51</v>
       </c>
       <c r="D8" t="n">
-        <v>5.63</v>
+        <v>5.53</v>
       </c>
       <c r="E8" t="n">
-        <v>5.63</v>
+        <v>5.4</v>
       </c>
       <c r="F8" t="n">
-        <v>89</v>
+        <v>1200199.749</v>
       </c>
       <c r="G8" t="n">
-        <v>5.569999999999997</v>
+        <v>5.467666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.42</v>
+        <v>5.63</v>
       </c>
       <c r="C9" t="n">
-        <v>5.48</v>
+        <v>5.63</v>
       </c>
       <c r="D9" t="n">
-        <v>5.48</v>
+        <v>5.63</v>
       </c>
       <c r="E9" t="n">
-        <v>5.4</v>
+        <v>5.63</v>
       </c>
       <c r="F9" t="n">
-        <v>576933.5091</v>
+        <v>89</v>
       </c>
       <c r="G9" t="n">
-        <v>5.554999999999997</v>
+        <v>5.4735</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.41</v>
+        <v>5.42</v>
       </c>
       <c r="C10" t="n">
-        <v>5.28</v>
+        <v>5.48</v>
       </c>
       <c r="D10" t="n">
-        <v>5.41</v>
+        <v>5.48</v>
       </c>
       <c r="E10" t="n">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1102989.2642</v>
+        <v>576933.5091</v>
       </c>
       <c r="G10" t="n">
-        <v>5.379999999999997</v>
+        <v>5.477000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.25</v>
+        <v>5.41</v>
       </c>
       <c r="C11" t="n">
-        <v>5.27</v>
+        <v>5.28</v>
       </c>
       <c r="D11" t="n">
-        <v>5.32</v>
+        <v>5.41</v>
       </c>
       <c r="E11" t="n">
-        <v>5.19</v>
+        <v>5.28</v>
       </c>
       <c r="F11" t="n">
-        <v>1604032.1343</v>
+        <v>1102989.2642</v>
       </c>
       <c r="G11" t="n">
-        <v>5.274999999999997</v>
+        <v>5.477166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.28</v>
+        <v>5.25</v>
       </c>
       <c r="C12" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="D12" t="n">
-        <v>5.66</v>
+        <v>5.32</v>
       </c>
       <c r="E12" t="n">
-        <v>5.28</v>
+        <v>5.19</v>
       </c>
       <c r="F12" t="n">
-        <v>197898.749</v>
+        <v>1604032.1343</v>
       </c>
       <c r="G12" t="n">
-        <v>5.284999999999997</v>
+        <v>5.478666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.39</v>
+        <v>5.28</v>
       </c>
       <c r="C13" t="n">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
       <c r="D13" t="n">
-        <v>5.47</v>
+        <v>5.66</v>
       </c>
       <c r="E13" t="n">
-        <v>5.39</v>
+        <v>5.28</v>
       </c>
       <c r="F13" t="n">
-        <v>40956.5746</v>
+        <v>197898.749</v>
       </c>
       <c r="G13" t="n">
-        <v>5.344999999999997</v>
+        <v>5.479333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.33</v>
+        <v>5.39</v>
       </c>
       <c r="C14" t="n">
-        <v>5.27</v>
+        <v>5.39</v>
       </c>
       <c r="D14" t="n">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="E14" t="n">
-        <v>5.27</v>
+        <v>5.39</v>
       </c>
       <c r="F14" t="n">
-        <v>33788.2867</v>
+        <v>40956.5746</v>
       </c>
       <c r="G14" t="n">
-        <v>5.329999999999997</v>
+        <v>5.4815</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="C15" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="D15" t="n">
-        <v>5.41</v>
+        <v>5.43</v>
       </c>
       <c r="E15" t="n">
         <v>5.27</v>
       </c>
       <c r="F15" t="n">
-        <v>271681.0875</v>
+        <v>33788.2867</v>
       </c>
       <c r="G15" t="n">
-        <v>5.284999999999997</v>
+        <v>5.481666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.31</v>
+        <v>5.32</v>
       </c>
       <c r="C16" t="n">
-        <v>5.37</v>
+        <v>5.3</v>
       </c>
       <c r="D16" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="E16" t="n">
-        <v>5.29</v>
+        <v>5.27</v>
       </c>
       <c r="F16" t="n">
-        <v>48885.3553</v>
+        <v>271681.0875</v>
       </c>
       <c r="G16" t="n">
-        <v>5.334999999999997</v>
+        <v>5.483833333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>5.31</v>
       </c>
       <c r="C17" t="n">
-        <v>5.55</v>
+        <v>5.37</v>
       </c>
       <c r="D17" t="n">
-        <v>5.55</v>
+        <v>5.38</v>
       </c>
       <c r="E17" t="n">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
       <c r="F17" t="n">
-        <v>3494.7741</v>
+        <v>48885.3553</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459999999999997</v>
+        <v>5.487333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.41</v>
+        <v>5.31</v>
       </c>
       <c r="C18" t="n">
-        <v>5.51</v>
+        <v>5.55</v>
       </c>
       <c r="D18" t="n">
-        <v>5.63</v>
+        <v>5.55</v>
       </c>
       <c r="E18" t="n">
-        <v>5.4</v>
+        <v>5.31</v>
       </c>
       <c r="F18" t="n">
-        <v>154628.0897</v>
+        <v>3494.7741</v>
       </c>
       <c r="G18" t="n">
-        <v>5.529999999999996</v>
+        <v>5.494000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.43</v>
+        <v>5.41</v>
       </c>
       <c r="C19" t="n">
-        <v>5.41</v>
+        <v>5.51</v>
       </c>
       <c r="D19" t="n">
-        <v>5.43</v>
+        <v>5.63</v>
       </c>
       <c r="E19" t="n">
         <v>5.4</v>
       </c>
       <c r="F19" t="n">
-        <v>12399.2574</v>
+        <v>154628.0897</v>
       </c>
       <c r="G19" t="n">
-        <v>5.459999999999996</v>
+        <v>5.500000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="C20" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
       </c>
       <c r="D20" t="n">
-        <v>5.39</v>
+        <v>5.43</v>
       </c>
       <c r="E20" t="n">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="F20" t="n">
-        <v>230718.1818</v>
+        <v>12399.2574</v>
       </c>
       <c r="G20" t="n">
-        <v>5.399999999999996</v>
+        <v>5.504333333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>5.37</v>
       </c>
       <c r="C21" t="n">
-        <v>5.37</v>
+        <v>5.39</v>
       </c>
       <c r="D21" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="E21" t="n">
         <v>5.28</v>
       </c>
       <c r="F21" t="n">
-        <v>926223.8821</v>
+        <v>230718.1818</v>
       </c>
       <c r="G21" t="n">
-        <v>5.379999999999995</v>
+        <v>5.508833333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.32</v>
+        <v>5.37</v>
       </c>
       <c r="C22" t="n">
-        <v>5.53</v>
+        <v>5.37</v>
       </c>
       <c r="D22" t="n">
-        <v>5.53</v>
+        <v>5.38</v>
       </c>
       <c r="E22" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="F22" t="n">
-        <v>67083.7564</v>
+        <v>926223.8821</v>
       </c>
       <c r="G22" t="n">
-        <v>5.449999999999996</v>
+        <v>5.513000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="C23" t="n">
-        <v>5.3</v>
+        <v>5.53</v>
       </c>
       <c r="D23" t="n">
-        <v>5.33</v>
+        <v>5.53</v>
       </c>
       <c r="E23" t="n">
-        <v>5.3</v>
+        <v>5.32</v>
       </c>
       <c r="F23" t="n">
-        <v>776525.493</v>
+        <v>67083.7564</v>
       </c>
       <c r="G23" t="n">
-        <v>5.414999999999996</v>
+        <v>5.52</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.31</v>
+        <v>5.33</v>
       </c>
       <c r="C24" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="D24" t="n">
-        <v>5.31</v>
+        <v>5.33</v>
       </c>
       <c r="E24" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="F24" t="n">
-        <v>15704.3953</v>
+        <v>776525.493</v>
       </c>
       <c r="G24" t="n">
-        <v>5.304999999999994</v>
+        <v>5.523000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="C25" t="n">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="D25" t="n">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="E25" t="n">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="F25" t="n">
-        <v>52499.0045</v>
+        <v>15704.3953</v>
       </c>
       <c r="G25" t="n">
-        <v>5.319999999999995</v>
+        <v>5.524333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>5.33</v>
       </c>
       <c r="F26" t="n">
-        <v>58766.7154</v>
+        <v>52499.0045</v>
       </c>
       <c r="G26" t="n">
-        <v>5.329999999999995</v>
+        <v>5.525666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>5.33</v>
       </c>
       <c r="F27" t="n">
-        <v>94750.95419999999</v>
+        <v>58766.7154</v>
       </c>
       <c r="G27" t="n">
-        <v>5.329999999999995</v>
+        <v>5.526666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>5.33</v>
       </c>
       <c r="C28" t="n">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="D28" t="n">
         <v>5.33</v>
       </c>
       <c r="E28" t="n">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="F28" t="n">
-        <v>240920.7502</v>
+        <v>94750.95419999999</v>
       </c>
       <c r="G28" t="n">
-        <v>5.314999999999995</v>
+        <v>5.527333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="C29" t="n">
         <v>5.3</v>
       </c>
       <c r="D29" t="n">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="E29" t="n">
         <v>5.3</v>
       </c>
       <c r="F29" t="n">
-        <v>45419.8805</v>
+        <v>240920.7502</v>
       </c>
       <c r="G29" t="n">
-        <v>5.299999999999994</v>
+        <v>5.528</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>5.3</v>
       </c>
       <c r="F30" t="n">
-        <v>125785.2635</v>
+        <v>45419.8805</v>
       </c>
       <c r="G30" t="n">
-        <v>5.299999999999994</v>
+        <v>5.528</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="C31" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="D31" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="E31" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2976.1003</v>
+        <v>125785.2635</v>
       </c>
       <c r="G31" t="n">
-        <v>5.304999999999993</v>
+        <v>5.528333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="C32" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="D32" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="E32" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="F32" t="n">
-        <v>37157.5254</v>
+        <v>2976.1003</v>
       </c>
       <c r="G32" t="n">
-        <v>5.279999999999992</v>
+        <v>5.528166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.24</v>
+        <v>5.27</v>
       </c>
       <c r="C33" t="n">
-        <v>5.17</v>
+        <v>5.25</v>
       </c>
       <c r="D33" t="n">
-        <v>5.24</v>
+        <v>5.27</v>
       </c>
       <c r="E33" t="n">
-        <v>5.17</v>
+        <v>5.25</v>
       </c>
       <c r="F33" t="n">
-        <v>802131.5754</v>
+        <v>37157.5254</v>
       </c>
       <c r="G33" t="n">
-        <v>5.209999999999992</v>
+        <v>5.5265</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
       <c r="C34" t="n">
         <v>5.17</v>
       </c>
       <c r="D34" t="n">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
       <c r="E34" t="n">
         <v>5.17</v>
       </c>
       <c r="F34" t="n">
-        <v>6800.1219</v>
+        <v>802131.5754</v>
       </c>
       <c r="G34" t="n">
-        <v>5.169999999999992</v>
+        <v>5.5235</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>5.17</v>
       </c>
       <c r="C35" t="n">
-        <v>5.15</v>
+        <v>5.17</v>
       </c>
       <c r="D35" t="n">
         <v>5.17</v>
       </c>
       <c r="E35" t="n">
-        <v>5.15</v>
+        <v>5.17</v>
       </c>
       <c r="F35" t="n">
-        <v>114588.0281</v>
+        <v>6800.1219</v>
       </c>
       <c r="G35" t="n">
-        <v>5.159999999999992</v>
+        <v>5.520333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.19</v>
+        <v>5.17</v>
       </c>
       <c r="C36" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="D36" t="n">
-        <v>5.19</v>
+        <v>5.17</v>
       </c>
       <c r="E36" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="F36" t="n">
-        <v>4723.699421965318</v>
+        <v>114588.0281</v>
       </c>
       <c r="G36" t="n">
-        <v>5.169999999999992</v>
+        <v>5.516166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>5.19</v>
       </c>
       <c r="F37" t="n">
-        <v>9691.7696</v>
+        <v>4723.699421965318</v>
       </c>
       <c r="G37" t="n">
-        <v>5.189999999999992</v>
+        <v>5.512166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,31 +1693,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.16</v>
+        <v>5.19</v>
       </c>
       <c r="C38" t="n">
-        <v>5.15</v>
+        <v>5.19</v>
       </c>
       <c r="D38" t="n">
-        <v>5.16</v>
+        <v>5.19</v>
       </c>
       <c r="E38" t="n">
-        <v>5.15</v>
+        <v>5.19</v>
       </c>
       <c r="F38" t="n">
-        <v>117882.6124</v>
+        <v>9691.7696</v>
       </c>
       <c r="G38" t="n">
-        <v>5.169999999999991</v>
+        <v>5.507499999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1728,22 +1732,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.19</v>
+        <v>5.16</v>
       </c>
       <c r="C39" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="D39" t="n">
-        <v>5.19</v>
+        <v>5.16</v>
       </c>
       <c r="E39" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="F39" t="n">
-        <v>288661.6823</v>
+        <v>117882.6124</v>
       </c>
       <c r="G39" t="n">
-        <v>5.169999999999991</v>
+        <v>5.501833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1756,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,32 +1773,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.16</v>
+        <v>5.19</v>
       </c>
       <c r="C40" t="n">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="D40" t="n">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="E40" t="n">
-        <v>5.16</v>
+        <v>5.19</v>
       </c>
       <c r="F40" t="n">
-        <v>194346.122</v>
+        <v>288661.6823</v>
       </c>
       <c r="G40" t="n">
-        <v>5.184999999999991</v>
+        <v>5.494833333333332</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,7 +1816,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="C41" t="n">
         <v>5.18</v>
@@ -1807,13 +1825,13 @@
         <v>5.18</v>
       </c>
       <c r="E41" t="n">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="F41" t="n">
-        <v>6662.463</v>
+        <v>194346.122</v>
       </c>
       <c r="G41" t="n">
-        <v>5.179999999999991</v>
+        <v>5.487166666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1840,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,36 +1857,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.23</v>
+        <v>5.18</v>
       </c>
       <c r="C42" t="n">
         <v>5.18</v>
       </c>
       <c r="D42" t="n">
-        <v>5.23</v>
+        <v>5.18</v>
       </c>
       <c r="E42" t="n">
         <v>5.18</v>
       </c>
       <c r="F42" t="n">
-        <v>62660.1986</v>
+        <v>6662.463</v>
       </c>
       <c r="G42" t="n">
-        <v>5.179999999999991</v>
+        <v>5.4795</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1874,33 +1898,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="C43" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="D43" t="n">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="E43" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="F43" t="n">
-        <v>541529.9372</v>
+        <v>62660.1986</v>
       </c>
       <c r="G43" t="n">
-        <v>5.194999999999991</v>
+        <v>5.4715</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,33 +1939,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="C44" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="D44" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="E44" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="F44" t="n">
-        <v>38027.31</v>
+        <v>541529.9372</v>
       </c>
       <c r="G44" t="n">
-        <v>5.194999999999991</v>
+        <v>5.463166666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1959,19 +1983,19 @@
         <v>5.18</v>
       </c>
       <c r="C45" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="D45" t="n">
         <v>5.18</v>
       </c>
       <c r="E45" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="F45" t="n">
-        <v>151607.1594</v>
+        <v>38027.31</v>
       </c>
       <c r="G45" t="n">
-        <v>5.174999999999992</v>
+        <v>5.453333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1980,7 +2004,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1995,22 +2021,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
       <c r="C46" t="n">
-        <v>5.2</v>
+        <v>5.17</v>
       </c>
       <c r="D46" t="n">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
       <c r="E46" t="n">
-        <v>5.2</v>
+        <v>5.17</v>
       </c>
       <c r="F46" t="n">
-        <v>42616.1097</v>
+        <v>151607.1594</v>
       </c>
       <c r="G46" t="n">
-        <v>5.184999999999992</v>
+        <v>5.442833333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2019,7 +2045,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2034,33 +2062,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="C47" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="D47" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="E47" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="F47" t="n">
-        <v>183006</v>
+        <v>42616.1097</v>
       </c>
       <c r="G47" t="n">
-        <v>5.204999999999992</v>
+        <v>5.430666666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2075,33 +2103,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="C48" t="n">
-        <v>5.25</v>
+        <v>5.21</v>
       </c>
       <c r="D48" t="n">
-        <v>5.25</v>
+        <v>5.21</v>
       </c>
       <c r="E48" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="F48" t="n">
-        <v>290</v>
+        <v>183006</v>
       </c>
       <c r="G48" t="n">
-        <v>5.229999999999992</v>
+        <v>5.419666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,33 +2144,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="C49" t="n">
         <v>5.25</v>
       </c>
-      <c r="C49" t="n">
-        <v>5.32</v>
-      </c>
       <c r="D49" t="n">
-        <v>5.32</v>
+        <v>5.25</v>
       </c>
       <c r="E49" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="F49" t="n">
-        <v>593.7328</v>
+        <v>290</v>
       </c>
       <c r="G49" t="n">
-        <v>5.284999999999991</v>
+        <v>5.412166666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2157,22 +2185,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="C50" t="n">
-        <v>5.31</v>
+        <v>5.32</v>
       </c>
       <c r="D50" t="n">
-        <v>5.31</v>
+        <v>5.32</v>
       </c>
       <c r="E50" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="F50" t="n">
-        <v>95</v>
+        <v>593.7328</v>
       </c>
       <c r="G50" t="n">
-        <v>5.314999999999991</v>
+        <v>5.405833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2181,7 +2209,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2196,22 +2226,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="C51" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="D51" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="E51" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="F51" t="n">
-        <v>19195.3422</v>
+        <v>95</v>
       </c>
       <c r="G51" t="n">
-        <v>5.314999999999991</v>
+        <v>5.3995</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2220,7 +2250,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2235,7 +2267,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="C52" t="n">
         <v>5.32</v>
@@ -2244,13 +2276,13 @@
         <v>5.32</v>
       </c>
       <c r="E52" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="F52" t="n">
-        <v>60209.2586</v>
+        <v>19195.3422</v>
       </c>
       <c r="G52" t="n">
-        <v>5.319999999999991</v>
+        <v>5.394833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2259,7 +2291,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,22 +2308,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.33</v>
+        <v>5.28</v>
       </c>
       <c r="C53" t="n">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="D53" t="n">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="E53" t="n">
-        <v>5.33</v>
+        <v>5.28</v>
       </c>
       <c r="F53" t="n">
-        <v>5078.367</v>
+        <v>60209.2586</v>
       </c>
       <c r="G53" t="n">
-        <v>5.324999999999991</v>
+        <v>5.388666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,7 +2332,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2313,22 +2349,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="C54" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="D54" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="E54" t="n">
-        <v>5.31</v>
+        <v>5.33</v>
       </c>
       <c r="F54" t="n">
-        <v>29370.7612</v>
+        <v>5078.367</v>
       </c>
       <c r="G54" t="n">
-        <v>5.349999999999991</v>
+        <v>5.381999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2337,7 +2373,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,22 +2390,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.38</v>
+        <v>5.34</v>
       </c>
       <c r="C55" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="D55" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="E55" t="n">
-        <v>5.38</v>
+        <v>5.31</v>
       </c>
       <c r="F55" t="n">
-        <v>70506.5797</v>
+        <v>29370.7612</v>
       </c>
       <c r="G55" t="n">
-        <v>5.37499999999999</v>
+        <v>5.374666666666665</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2376,7 +2414,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,19 +2434,19 @@
         <v>5.38</v>
       </c>
       <c r="C56" t="n">
-        <v>5.49</v>
+        <v>5.38</v>
       </c>
       <c r="D56" t="n">
-        <v>5.49</v>
+        <v>5.38</v>
       </c>
       <c r="E56" t="n">
         <v>5.38</v>
       </c>
       <c r="F56" t="n">
-        <v>232243.443</v>
+        <v>70506.5797</v>
       </c>
       <c r="G56" t="n">
-        <v>5.43499999999999</v>
+        <v>5.367333333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2415,7 +2455,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,22 +2472,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C57" t="n">
         <v>5.49</v>
       </c>
-      <c r="C57" t="n">
-        <v>5.55</v>
-      </c>
       <c r="D57" t="n">
-        <v>5.55</v>
+        <v>5.49</v>
       </c>
       <c r="E57" t="n">
-        <v>5.49</v>
+        <v>5.38</v>
       </c>
       <c r="F57" t="n">
-        <v>30680.3441</v>
+        <v>232243.443</v>
       </c>
       <c r="G57" t="n">
-        <v>5.519999999999991</v>
+        <v>5.363499999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,7 +2496,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2469,22 +2513,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="C58" t="n">
-        <v>5.47</v>
+        <v>5.55</v>
       </c>
       <c r="D58" t="n">
-        <v>5.53</v>
+        <v>5.55</v>
       </c>
       <c r="E58" t="n">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="F58" t="n">
-        <v>54514.5907</v>
+        <v>30680.3441</v>
       </c>
       <c r="G58" t="n">
-        <v>5.50999999999999</v>
+        <v>5.359499999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2493,7 +2537,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,22 +2554,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.44</v>
+        <v>5.53</v>
       </c>
       <c r="C59" t="n">
-        <v>5.38</v>
+        <v>5.47</v>
       </c>
       <c r="D59" t="n">
-        <v>5.44</v>
+        <v>5.53</v>
       </c>
       <c r="E59" t="n">
-        <v>5.38</v>
+        <v>5.47</v>
       </c>
       <c r="F59" t="n">
-        <v>56573.4832</v>
+        <v>54514.5907</v>
       </c>
       <c r="G59" t="n">
-        <v>5.42499999999999</v>
+        <v>5.355333333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2532,7 +2578,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2547,22 +2595,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.38</v>
+        <v>5.44</v>
       </c>
       <c r="C60" t="n">
         <v>5.38</v>
       </c>
       <c r="D60" t="n">
-        <v>5.38</v>
+        <v>5.44</v>
       </c>
       <c r="E60" t="n">
         <v>5.38</v>
       </c>
       <c r="F60" t="n">
-        <v>25364.9986</v>
+        <v>56573.4832</v>
       </c>
       <c r="G60" t="n">
-        <v>5.37999999999999</v>
+        <v>5.349333333333331</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2571,7 +2619,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2589,19 +2639,19 @@
         <v>5.38</v>
       </c>
       <c r="C61" t="n">
-        <v>5.47</v>
+        <v>5.38</v>
       </c>
       <c r="D61" t="n">
-        <v>5.47</v>
+        <v>5.38</v>
       </c>
       <c r="E61" t="n">
         <v>5.38</v>
       </c>
       <c r="F61" t="n">
-        <v>21189.6865</v>
+        <v>25364.9986</v>
       </c>
       <c r="G61" t="n">
-        <v>5.42499999999999</v>
+        <v>5.343666666666664</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2610,7 +2660,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2625,22 +2677,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.45</v>
+        <v>5.38</v>
       </c>
       <c r="C62" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="D62" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="E62" t="n">
-        <v>5.45</v>
+        <v>5.38</v>
       </c>
       <c r="F62" t="n">
-        <v>55249.3774</v>
+        <v>21189.6865</v>
       </c>
       <c r="G62" t="n">
-        <v>5.45999999999999</v>
+        <v>5.342166666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2649,7 +2701,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,22 +2718,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="C63" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="D63" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="E63" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="F63" t="n">
-        <v>92</v>
+        <v>55249.3774</v>
       </c>
       <c r="G63" t="n">
-        <v>5.464999999999991</v>
+        <v>5.340833333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2688,7 +2742,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,22 +2759,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="C64" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="D64" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="E64" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="F64" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G64" t="n">
-        <v>5.494999999999992</v>
+        <v>5.338833333333331</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2727,7 +2783,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2742,22 +2800,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.42</v>
+        <v>5.51</v>
       </c>
       <c r="C65" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="D65" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="E65" t="n">
-        <v>5.42</v>
+        <v>5.51</v>
       </c>
       <c r="F65" t="n">
-        <v>573.2754</v>
+        <v>93</v>
       </c>
       <c r="G65" t="n">
-        <v>5.499999999999991</v>
+        <v>5.337333333333331</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2766,7 +2824,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2781,22 +2841,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.53</v>
+        <v>5.42</v>
       </c>
       <c r="C66" t="n">
-        <v>5.51</v>
+        <v>5.49</v>
       </c>
       <c r="D66" t="n">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="E66" t="n">
-        <v>5.51</v>
+        <v>5.42</v>
       </c>
       <c r="F66" t="n">
-        <v>1490</v>
+        <v>573.2754</v>
       </c>
       <c r="G66" t="n">
-        <v>5.499999999999992</v>
+        <v>5.335999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2805,7 +2865,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,22 +2882,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.35</v>
+        <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>5.31</v>
+        <v>5.51</v>
       </c>
       <c r="D67" t="n">
-        <v>5.35</v>
+        <v>5.53</v>
       </c>
       <c r="E67" t="n">
-        <v>5.31</v>
+        <v>5.51</v>
       </c>
       <c r="F67" t="n">
-        <v>118579.9866</v>
+        <v>1490</v>
       </c>
       <c r="G67" t="n">
-        <v>5.409999999999992</v>
+        <v>5.33533333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2844,7 +2906,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,22 +2923,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="C68" t="n">
-        <v>5.4</v>
+        <v>5.31</v>
       </c>
       <c r="D68" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="E68" t="n">
-        <v>5.4</v>
+        <v>5.31</v>
       </c>
       <c r="F68" t="n">
-        <v>95</v>
+        <v>118579.9866</v>
       </c>
       <c r="G68" t="n">
-        <v>5.354999999999992</v>
+        <v>5.331999999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2883,7 +2947,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,22 +2964,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="C69" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="D69" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="E69" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="F69" t="n">
-        <v>4942.0179</v>
+        <v>95</v>
       </c>
       <c r="G69" t="n">
-        <v>5.414999999999994</v>
+        <v>5.328166666666664</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2922,7 +2988,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2937,7 +3005,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="C70" t="n">
         <v>5.43</v>
@@ -2946,13 +3014,13 @@
         <v>5.43</v>
       </c>
       <c r="E70" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="F70" t="n">
-        <v>95</v>
+        <v>4942.0179</v>
       </c>
       <c r="G70" t="n">
-        <v>5.429999999999993</v>
+        <v>5.32733333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2961,7 +3029,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,22 +3046,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.37</v>
+        <v>5.43</v>
       </c>
       <c r="C71" t="n">
-        <v>5.41</v>
+        <v>5.43</v>
       </c>
       <c r="D71" t="n">
-        <v>5.41</v>
+        <v>5.43</v>
       </c>
       <c r="E71" t="n">
-        <v>5.29</v>
+        <v>5.43</v>
       </c>
       <c r="F71" t="n">
-        <v>482231.2815</v>
+        <v>95</v>
       </c>
       <c r="G71" t="n">
-        <v>5.419999999999995</v>
+        <v>5.329833333333331</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3000,7 +3070,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3015,22 +3087,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="C72" t="n">
-        <v>5.35</v>
+        <v>5.41</v>
       </c>
       <c r="D72" t="n">
-        <v>5.35</v>
+        <v>5.41</v>
       </c>
       <c r="E72" t="n">
-        <v>5.34</v>
+        <v>5.29</v>
       </c>
       <c r="F72" t="n">
-        <v>80040.7902</v>
+        <v>482231.2815</v>
       </c>
       <c r="G72" t="n">
-        <v>5.379999999999995</v>
+        <v>5.332166666666665</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3039,7 +3111,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3054,22 +3128,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.47</v>
+        <v>5.34</v>
       </c>
       <c r="C73" t="n">
-        <v>5.47</v>
+        <v>5.35</v>
       </c>
       <c r="D73" t="n">
-        <v>5.47</v>
+        <v>5.35</v>
       </c>
       <c r="E73" t="n">
-        <v>5.47</v>
+        <v>5.34</v>
       </c>
       <c r="F73" t="n">
-        <v>93</v>
+        <v>80040.7902</v>
       </c>
       <c r="G73" t="n">
-        <v>5.409999999999995</v>
+        <v>5.332999999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3078,7 +3152,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,22 +3169,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.4</v>
+        <v>5.47</v>
       </c>
       <c r="C74" t="n">
-        <v>5.27</v>
+        <v>5.47</v>
       </c>
       <c r="D74" t="n">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="E74" t="n">
-        <v>5.27</v>
+        <v>5.47</v>
       </c>
       <c r="F74" t="n">
-        <v>1281376.7901</v>
+        <v>93</v>
       </c>
       <c r="G74" t="n">
-        <v>5.369999999999995</v>
+        <v>5.334333333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3117,7 +3193,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3132,22 +3210,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="C75" t="n">
-        <v>5.35</v>
+        <v>5.27</v>
       </c>
       <c r="D75" t="n">
-        <v>5.39</v>
+        <v>5.45</v>
       </c>
       <c r="E75" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="F75" t="n">
-        <v>65479.8716</v>
+        <v>1281376.7901</v>
       </c>
       <c r="G75" t="n">
-        <v>5.309999999999995</v>
+        <v>5.334333333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3156,7 +3234,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3171,22 +3251,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.53</v>
+        <v>5.3</v>
       </c>
       <c r="C76" t="n">
-        <v>5.53</v>
+        <v>5.35</v>
       </c>
       <c r="D76" t="n">
-        <v>5.53</v>
+        <v>5.39</v>
       </c>
       <c r="E76" t="n">
-        <v>5.53</v>
+        <v>5.3</v>
       </c>
       <c r="F76" t="n">
-        <v>614.0688</v>
+        <v>65479.8716</v>
       </c>
       <c r="G76" t="n">
-        <v>5.439999999999996</v>
+        <v>5.335166666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3195,7 +3275,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3210,22 +3292,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.46</v>
+        <v>5.53</v>
       </c>
       <c r="C77" t="n">
-        <v>5.46</v>
+        <v>5.53</v>
       </c>
       <c r="D77" t="n">
-        <v>5.46</v>
+        <v>5.53</v>
       </c>
       <c r="E77" t="n">
-        <v>5.46</v>
+        <v>5.53</v>
       </c>
       <c r="F77" t="n">
-        <v>51495.7442</v>
+        <v>614.0688</v>
       </c>
       <c r="G77" t="n">
-        <v>5.494999999999997</v>
+        <v>5.337833333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3234,7 +3316,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,22 +3333,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.4</v>
+        <v>5.46</v>
       </c>
       <c r="C78" t="n">
-        <v>5.35</v>
+        <v>5.46</v>
       </c>
       <c r="D78" t="n">
-        <v>5.4</v>
+        <v>5.46</v>
       </c>
       <c r="E78" t="n">
-        <v>5.35</v>
+        <v>5.46</v>
       </c>
       <c r="F78" t="n">
-        <v>18785.5144</v>
+        <v>51495.7442</v>
       </c>
       <c r="G78" t="n">
-        <v>5.404999999999996</v>
+        <v>5.336333333333331</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3273,7 +3357,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3288,22 +3374,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="C79" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="D79" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="E79" t="n">
-        <v>5.43</v>
+        <v>5.35</v>
       </c>
       <c r="F79" t="n">
-        <v>36373.611</v>
+        <v>18785.5144</v>
       </c>
       <c r="G79" t="n">
-        <v>5.389999999999995</v>
+        <v>5.333666666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3312,7 +3398,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3327,22 +3415,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.45</v>
+        <v>5.43</v>
       </c>
       <c r="C80" t="n">
-        <v>5.53</v>
+        <v>5.43</v>
       </c>
       <c r="D80" t="n">
-        <v>5.53</v>
+        <v>5.43</v>
       </c>
       <c r="E80" t="n">
-        <v>5.45</v>
+        <v>5.43</v>
       </c>
       <c r="F80" t="n">
-        <v>125854.1511</v>
+        <v>36373.611</v>
       </c>
       <c r="G80" t="n">
-        <v>5.479999999999996</v>
+        <v>5.333999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3351,7 +3439,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,22 +3456,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.54</v>
+        <v>5.45</v>
       </c>
       <c r="C81" t="n">
         <v>5.53</v>
       </c>
       <c r="D81" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="E81" t="n">
-        <v>5.53</v>
+        <v>5.45</v>
       </c>
       <c r="F81" t="n">
-        <v>52224.5984</v>
+        <v>125854.1511</v>
       </c>
       <c r="G81" t="n">
-        <v>5.529999999999996</v>
+        <v>5.336333333333331</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3390,7 +3480,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3405,22 +3497,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.49</v>
+        <v>5.54</v>
       </c>
       <c r="C82" t="n">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="D82" t="n">
-        <v>5.49</v>
+        <v>5.54</v>
       </c>
       <c r="E82" t="n">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="F82" t="n">
-        <v>100057.9346</v>
+        <v>52224.5984</v>
       </c>
       <c r="G82" t="n">
-        <v>5.504999999999995</v>
+        <v>5.338999999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3429,7 +3521,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,22 +3538,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="C83" t="n">
         <v>5.48</v>
       </c>
       <c r="D83" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="E83" t="n">
         <v>5.48</v>
       </c>
       <c r="F83" t="n">
-        <v>269279.6026</v>
+        <v>100057.9346</v>
       </c>
       <c r="G83" t="n">
-        <v>5.479999999999995</v>
+        <v>5.338166666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3468,7 +3562,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,22 +3579,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="C84" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="D84" t="n">
-        <v>5.38</v>
+        <v>5.48</v>
       </c>
       <c r="E84" t="n">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="F84" t="n">
-        <v>962324.0334</v>
+        <v>269279.6026</v>
       </c>
       <c r="G84" t="n">
-        <v>5.414999999999994</v>
+        <v>5.341166666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3507,7 +3603,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3522,22 +3620,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="C85" t="n">
-        <v>5.33</v>
+        <v>5.35</v>
       </c>
       <c r="D85" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="E85" t="n">
-        <v>5.33</v>
+        <v>5.35</v>
       </c>
       <c r="F85" t="n">
-        <v>114983.4246</v>
+        <v>962324.0334</v>
       </c>
       <c r="G85" t="n">
-        <v>5.339999999999995</v>
+        <v>5.341833333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3546,7 +3644,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3561,22 +3661,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="C86" t="n">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="D86" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="E86" t="n">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="F86" t="n">
-        <v>6490</v>
+        <v>114983.4246</v>
       </c>
       <c r="G86" t="n">
-        <v>5.334999999999995</v>
+        <v>5.341833333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3585,7 +3685,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,10 +3714,10 @@
         <v>5.34</v>
       </c>
       <c r="F87" t="n">
-        <v>2471.4668</v>
+        <v>6490</v>
       </c>
       <c r="G87" t="n">
-        <v>5.339999999999995</v>
+        <v>5.341999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3624,7 +3726,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,19 +3746,19 @@
         <v>5.34</v>
       </c>
       <c r="C88" t="n">
-        <v>5.32</v>
+        <v>5.34</v>
       </c>
       <c r="D88" t="n">
         <v>5.34</v>
       </c>
       <c r="E88" t="n">
-        <v>5.32</v>
+        <v>5.34</v>
       </c>
       <c r="F88" t="n">
-        <v>130033.855</v>
+        <v>2471.4668</v>
       </c>
       <c r="G88" t="n">
-        <v>5.329999999999996</v>
+        <v>5.342166666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3663,7 +3767,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3678,22 +3784,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.32</v>
+        <v>5.34</v>
       </c>
       <c r="C89" t="n">
         <v>5.32</v>
       </c>
       <c r="D89" t="n">
-        <v>5.32</v>
+        <v>5.34</v>
       </c>
       <c r="E89" t="n">
         <v>5.32</v>
       </c>
       <c r="F89" t="n">
-        <v>164285.8775</v>
+        <v>130033.855</v>
       </c>
       <c r="G89" t="n">
-        <v>5.319999999999996</v>
+        <v>5.342499999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3702,7 +3808,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,19 +3828,19 @@
         <v>5.32</v>
       </c>
       <c r="C90" t="n">
-        <v>5.27</v>
+        <v>5.32</v>
       </c>
       <c r="D90" t="n">
         <v>5.32</v>
       </c>
       <c r="E90" t="n">
-        <v>5.27</v>
+        <v>5.32</v>
       </c>
       <c r="F90" t="n">
-        <v>496495.4199</v>
+        <v>164285.8775</v>
       </c>
       <c r="G90" t="n">
-        <v>5.294999999999995</v>
+        <v>5.342833333333331</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3741,7 +3849,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,22 +3866,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.3</v>
+        <v>5.32</v>
       </c>
       <c r="C91" t="n">
-        <v>5.29</v>
+        <v>5.27</v>
       </c>
       <c r="D91" t="n">
-        <v>5.3</v>
+        <v>5.32</v>
       </c>
       <c r="E91" t="n">
-        <v>5.29</v>
+        <v>5.27</v>
       </c>
       <c r="F91" t="n">
-        <v>1555947.6532</v>
+        <v>496495.4199</v>
       </c>
       <c r="G91" t="n">
-        <v>5.279999999999996</v>
+        <v>5.342333333333331</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3780,7 +3890,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,22 +3907,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="C92" t="n">
         <v>5.29</v>
       </c>
       <c r="D92" t="n">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="E92" t="n">
         <v>5.29</v>
       </c>
       <c r="F92" t="n">
-        <v>530443.091</v>
+        <v>1555947.6532</v>
       </c>
       <c r="G92" t="n">
-        <v>5.289999999999996</v>
+        <v>5.341999999999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3819,7 +3931,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,22 +3948,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.27</v>
+        <v>5.29</v>
       </c>
       <c r="C93" t="n">
-        <v>5.27</v>
+        <v>5.29</v>
       </c>
       <c r="D93" t="n">
-        <v>5.27</v>
+        <v>5.29</v>
       </c>
       <c r="E93" t="n">
-        <v>5.27</v>
+        <v>5.29</v>
       </c>
       <c r="F93" t="n">
-        <v>24767.225</v>
+        <v>530443.091</v>
       </c>
       <c r="G93" t="n">
-        <v>5.279999999999996</v>
+        <v>5.342666666666664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3858,7 +3972,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3885,10 +4001,10 @@
         <v>5.27</v>
       </c>
       <c r="F94" t="n">
-        <v>13651.5917</v>
+        <v>24767.225</v>
       </c>
       <c r="G94" t="n">
-        <v>5.269999999999996</v>
+        <v>5.34433333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3897,7 +4013,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3927,7 +4045,7 @@
         <v>13651.5917</v>
       </c>
       <c r="G95" t="n">
-        <v>5.269999999999996</v>
+        <v>5.345999999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3936,7 +4054,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,10 +4083,10 @@
         <v>5.27</v>
       </c>
       <c r="F96" t="n">
-        <v>6911.4884</v>
+        <v>13651.5917</v>
       </c>
       <c r="G96" t="n">
-        <v>5.269999999999996</v>
+        <v>5.347999999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3975,7 +4095,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,22 +4112,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="C97" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="D97" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="E97" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="F97" t="n">
-        <v>395213.4705</v>
+        <v>6911.4884</v>
       </c>
       <c r="G97" t="n">
-        <v>5.204999999999997</v>
+        <v>5.34933333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4014,7 +4136,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,22 +4153,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.2</v>
+        <v>5.28</v>
       </c>
       <c r="C98" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="D98" t="n">
-        <v>5.2</v>
+        <v>5.28</v>
       </c>
       <c r="E98" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="F98" t="n">
-        <v>182184.7729</v>
+        <v>395213.4705</v>
       </c>
       <c r="G98" t="n">
-        <v>5.169999999999996</v>
+        <v>5.348499999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4053,7 +4177,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,22 +4194,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.31</v>
+        <v>5.2</v>
       </c>
       <c r="C99" t="n">
-        <v>5.31</v>
+        <v>5.2</v>
       </c>
       <c r="D99" t="n">
-        <v>5.31</v>
+        <v>5.2</v>
       </c>
       <c r="E99" t="n">
-        <v>5.31</v>
+        <v>5.2</v>
       </c>
       <c r="F99" t="n">
-        <v>163.4407</v>
+        <v>182184.7729</v>
       </c>
       <c r="G99" t="n">
-        <v>5.254999999999995</v>
+        <v>5.34933333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4092,7 +4218,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4107,22 +4235,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.23</v>
+        <v>5.31</v>
       </c>
       <c r="C100" t="n">
-        <v>5.23</v>
+        <v>5.31</v>
       </c>
       <c r="D100" t="n">
-        <v>5.23</v>
+        <v>5.31</v>
       </c>
       <c r="E100" t="n">
-        <v>5.23</v>
+        <v>5.31</v>
       </c>
       <c r="F100" t="n">
-        <v>19228.3083</v>
+        <v>163.4407</v>
       </c>
       <c r="G100" t="n">
-        <v>5.269999999999996</v>
+        <v>5.35133333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4131,7 +4259,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4158,10 +4288,10 @@
         <v>5.23</v>
       </c>
       <c r="F101" t="n">
-        <v>65566.2564</v>
+        <v>19228.3083</v>
       </c>
       <c r="G101" t="n">
-        <v>5.229999999999997</v>
+        <v>5.352166666666664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4170,7 +4300,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4197,10 +4329,10 @@
         <v>5.23</v>
       </c>
       <c r="F102" t="n">
-        <v>49174.6923</v>
+        <v>65566.2564</v>
       </c>
       <c r="G102" t="n">
-        <v>5.229999999999997</v>
+        <v>5.352999999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4209,7 +4341,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4224,22 +4358,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.27</v>
+        <v>5.23</v>
       </c>
       <c r="C103" t="n">
-        <v>5.3</v>
+        <v>5.23</v>
       </c>
       <c r="D103" t="n">
-        <v>5.3</v>
+        <v>5.23</v>
       </c>
       <c r="E103" t="n">
-        <v>5.27</v>
+        <v>5.23</v>
       </c>
       <c r="F103" t="n">
-        <v>14292.7232</v>
+        <v>49174.6923</v>
       </c>
       <c r="G103" t="n">
-        <v>5.264999999999997</v>
+        <v>5.353833333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4248,7 +4382,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,22 +4399,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="C104" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="D104" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="E104" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="F104" t="n">
-        <v>13551.1513</v>
+        <v>14292.7232</v>
       </c>
       <c r="G104" t="n">
-        <v>5.304999999999996</v>
+        <v>5.355333333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4287,7 +4423,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,7 +4440,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="C105" t="n">
         <v>5.31</v>
@@ -4311,13 +4449,13 @@
         <v>5.31</v>
       </c>
       <c r="E105" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="F105" t="n">
-        <v>54012.7153</v>
+        <v>13551.1513</v>
       </c>
       <c r="G105" t="n">
-        <v>5.309999999999995</v>
+        <v>5.357499999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4326,7 +4464,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,22 +4481,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="C106" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="D106" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="E106" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="F106" t="n">
-        <v>18681.7194</v>
+        <v>54012.7153</v>
       </c>
       <c r="G106" t="n">
-        <v>5.279999999999996</v>
+        <v>5.359833333333331</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4365,7 +4505,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,22 +4522,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.24</v>
+        <v>5.25</v>
       </c>
       <c r="C107" t="n">
-        <v>5.24</v>
+        <v>5.25</v>
       </c>
       <c r="D107" t="n">
-        <v>5.24</v>
+        <v>5.25</v>
       </c>
       <c r="E107" t="n">
-        <v>5.24</v>
+        <v>5.25</v>
       </c>
       <c r="F107" t="n">
-        <v>35073.2835</v>
+        <v>18681.7194</v>
       </c>
       <c r="G107" t="n">
-        <v>5.244999999999996</v>
+        <v>5.360666666666664</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4404,7 +4546,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,22 +4563,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="C108" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="D108" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="E108" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="F108" t="n">
-        <v>100</v>
+        <v>35073.2835</v>
       </c>
       <c r="G108" t="n">
-        <v>5.244999999999996</v>
+        <v>5.361166666666665</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4443,7 +4587,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,22 +4604,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="C109" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="D109" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="E109" t="n">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="F109" t="n">
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>5.279999999999995</v>
+        <v>5.361166666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4482,7 +4628,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,22 +4645,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="C110" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="D110" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="E110" t="n">
-        <v>5.27</v>
+        <v>5.31</v>
       </c>
       <c r="F110" t="n">
-        <v>171900.9786</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>5.289999999999995</v>
+        <v>5.360999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4521,7 +4669,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,22 +4686,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="C111" t="n">
-        <v>5.31</v>
+        <v>5.27</v>
       </c>
       <c r="D111" t="n">
-        <v>5.32</v>
+        <v>5.27</v>
       </c>
       <c r="E111" t="n">
-        <v>5.3</v>
+        <v>5.27</v>
       </c>
       <c r="F111" t="n">
-        <v>221791.1189</v>
+        <v>171900.9786</v>
       </c>
       <c r="G111" t="n">
-        <v>5.289999999999996</v>
+        <v>5.360333333333331</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4560,7 +4710,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,22 +4727,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.32</v>
+        <v>5.3</v>
       </c>
       <c r="C112" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="D112" t="n">
         <v>5.32</v>
       </c>
       <c r="E112" t="n">
-        <v>5.32</v>
+        <v>5.3</v>
       </c>
       <c r="F112" t="n">
-        <v>10679.8742</v>
+        <v>221791.1189</v>
       </c>
       <c r="G112" t="n">
-        <v>5.314999999999996</v>
+        <v>5.360166666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4599,7 +4751,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4614,22 +4768,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.37</v>
+        <v>5.32</v>
       </c>
       <c r="C113" t="n">
-        <v>5.37</v>
+        <v>5.32</v>
       </c>
       <c r="D113" t="n">
-        <v>5.37</v>
+        <v>5.32</v>
       </c>
       <c r="E113" t="n">
-        <v>5.37</v>
+        <v>5.32</v>
       </c>
       <c r="F113" t="n">
-        <v>3437.2666</v>
+        <v>10679.8742</v>
       </c>
       <c r="G113" t="n">
-        <v>5.344999999999997</v>
+        <v>5.360166666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4638,7 +4792,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4653,22 +4809,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="C114" t="n">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="D114" t="n">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="E114" t="n">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="F114" t="n">
-        <v>288.7357</v>
+        <v>3437.2666</v>
       </c>
       <c r="G114" t="n">
-        <v>5.379999999999997</v>
+        <v>5.360833333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4677,7 +4833,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4701,13 +4859,13 @@
         <v>5.39</v>
       </c>
       <c r="E115" t="n">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="F115" t="n">
-        <v>89014.01880000001</v>
+        <v>288.7357</v>
       </c>
       <c r="G115" t="n">
-        <v>5.389999999999997</v>
+        <v>5.361166666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4716,7 +4874,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,13 +4900,13 @@
         <v>5.39</v>
       </c>
       <c r="E116" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="F116" t="n">
-        <v>2535.8563</v>
+        <v>89014.01880000001</v>
       </c>
       <c r="G116" t="n">
-        <v>5.389999999999997</v>
+        <v>5.361333333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4755,7 +4915,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4782,10 +4944,10 @@
         <v>5.39</v>
       </c>
       <c r="F117" t="n">
-        <v>12228.1437</v>
+        <v>2535.8563</v>
       </c>
       <c r="G117" t="n">
-        <v>5.389999999999997</v>
+        <v>5.359666666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4794,7 +4956,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4809,22 +4973,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.44</v>
+        <v>5.39</v>
       </c>
       <c r="C118" t="n">
-        <v>5.44</v>
+        <v>5.39</v>
       </c>
       <c r="D118" t="n">
-        <v>5.44</v>
+        <v>5.39</v>
       </c>
       <c r="E118" t="n">
-        <v>5.44</v>
+        <v>5.39</v>
       </c>
       <c r="F118" t="n">
-        <v>988.1509</v>
+        <v>12228.1437</v>
       </c>
       <c r="G118" t="n">
-        <v>5.414999999999997</v>
+        <v>5.356999999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4833,7 +4997,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,10 +5026,10 @@
         <v>5.44</v>
       </c>
       <c r="F119" t="n">
-        <v>21678.5151</v>
+        <v>988.1509</v>
       </c>
       <c r="G119" t="n">
-        <v>5.439999999999998</v>
+        <v>5.356499999999997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4872,7 +5038,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4887,22 +5055,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="C120" t="n">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="D120" t="n">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="E120" t="n">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="F120" t="n">
-        <v>3265.4032</v>
+        <v>21678.5151</v>
       </c>
       <c r="G120" t="n">
-        <v>5.459999999999997</v>
+        <v>5.357499999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4911,7 +5079,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4926,22 +5096,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="C121" t="n">
-        <v>5.53</v>
+        <v>5.48</v>
       </c>
       <c r="D121" t="n">
-        <v>5.53</v>
+        <v>5.48</v>
       </c>
       <c r="E121" t="n">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="F121" t="n">
-        <v>66458.5714</v>
+        <v>3265.4032</v>
       </c>
       <c r="G121" t="n">
-        <v>5.504999999999997</v>
+        <v>5.359166666666664</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4950,7 +5120,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,7 +5137,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="C122" t="n">
         <v>5.53</v>
@@ -4974,13 +5146,13 @@
         <v>5.53</v>
       </c>
       <c r="E122" t="n">
-        <v>5.53</v>
+        <v>5.5</v>
       </c>
       <c r="F122" t="n">
-        <v>74515.67999999999</v>
+        <v>66458.5714</v>
       </c>
       <c r="G122" t="n">
-        <v>5.529999999999998</v>
+        <v>5.360166666666663</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4989,7 +5161,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5004,22 +5178,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="C123" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="D123" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="E123" t="n">
-        <v>5.5</v>
+        <v>5.53</v>
       </c>
       <c r="F123" t="n">
-        <v>383.8236</v>
+        <v>74515.67999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>5.514999999999997</v>
+        <v>5.361499999999996</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5028,7 +5202,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,22 +5219,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="C124" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="D124" t="n">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="E124" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="F124" t="n">
-        <v>54516.3878</v>
+        <v>383.8236</v>
       </c>
       <c r="G124" t="n">
-        <v>5.494999999999997</v>
+        <v>5.361833333333329</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5067,7 +5243,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5082,22 +5260,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.44</v>
+        <v>5.48</v>
       </c>
       <c r="C125" t="n">
-        <v>5.38</v>
+        <v>5.49</v>
       </c>
       <c r="D125" t="n">
-        <v>5.44</v>
+        <v>5.49</v>
       </c>
       <c r="E125" t="n">
-        <v>5.37</v>
+        <v>5.48</v>
       </c>
       <c r="F125" t="n">
-        <v>249567.0386</v>
+        <v>54516.3878</v>
       </c>
       <c r="G125" t="n">
-        <v>5.434999999999997</v>
+        <v>5.361499999999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5106,7 +5284,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5121,22 +5301,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.38</v>
+        <v>5.44</v>
       </c>
       <c r="C126" t="n">
         <v>5.38</v>
       </c>
       <c r="D126" t="n">
-        <v>5.38</v>
+        <v>5.44</v>
       </c>
       <c r="E126" t="n">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="F126" t="n">
-        <v>6353.9016</v>
+        <v>249567.0386</v>
       </c>
       <c r="G126" t="n">
-        <v>5.379999999999996</v>
+        <v>5.359666666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5145,7 +5325,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,22 +5342,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="C127" t="n">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="D127" t="n">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="E127" t="n">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="F127" t="n">
-        <v>21772.1923</v>
+        <v>6353.9016</v>
       </c>
       <c r="G127" t="n">
-        <v>5.374999999999996</v>
+        <v>5.357499999999996</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5184,7 +5366,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,10 +5395,10 @@
         <v>5.37</v>
       </c>
       <c r="F128" t="n">
-        <v>52097.0657</v>
+        <v>21772.1923</v>
       </c>
       <c r="G128" t="n">
-        <v>5.369999999999997</v>
+        <v>5.358499999999996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5223,7 +5407,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,10 +5436,10 @@
         <v>5.37</v>
       </c>
       <c r="F129" t="n">
-        <v>10679.8742</v>
+        <v>52097.0657</v>
       </c>
       <c r="G129" t="n">
-        <v>5.369999999999997</v>
+        <v>5.357999999999996</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5262,7 +5448,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,22 +5465,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
       <c r="C130" t="n">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
       <c r="D130" t="n">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
       <c r="E130" t="n">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
       <c r="F130" t="n">
-        <v>1000</v>
+        <v>10679.8742</v>
       </c>
       <c r="G130" t="n">
-        <v>5.384999999999996</v>
+        <v>5.356999999999997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5301,7 +5489,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5328,10 +5518,10 @@
         <v>5.4</v>
       </c>
       <c r="F131" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G131" t="n">
-        <v>5.399999999999997</v>
+        <v>5.356499999999996</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5340,7 +5530,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5367,10 +5559,10 @@
         <v>5.4</v>
       </c>
       <c r="F132" t="n">
-        <v>282.0578</v>
+        <v>5000</v>
       </c>
       <c r="G132" t="n">
-        <v>5.399999999999998</v>
+        <v>5.356333333333328</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5379,7 +5571,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5397,19 +5591,19 @@
         <v>5.4</v>
       </c>
       <c r="C133" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="D133" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E133" t="n">
         <v>5.4</v>
       </c>
       <c r="F133" t="n">
-        <v>109062.3164</v>
+        <v>282.0578</v>
       </c>
       <c r="G133" t="n">
-        <v>5.404999999999997</v>
+        <v>5.357166666666661</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5418,7 +5612,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5433,22 +5629,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="C134" t="n">
-        <v>5.53</v>
+        <v>5.41</v>
       </c>
       <c r="D134" t="n">
-        <v>5.53</v>
+        <v>5.41</v>
       </c>
       <c r="E134" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="F134" t="n">
-        <v>383.6233</v>
+        <v>109062.3164</v>
       </c>
       <c r="G134" t="n">
-        <v>5.469999999999996</v>
+        <v>5.356166666666661</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5457,7 +5653,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5472,22 +5670,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.48</v>
+        <v>5.39</v>
       </c>
       <c r="C135" t="n">
-        <v>5.43</v>
+        <v>5.53</v>
       </c>
       <c r="D135" t="n">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="E135" t="n">
-        <v>5.43</v>
+        <v>5.39</v>
       </c>
       <c r="F135" t="n">
-        <v>27515.4969</v>
+        <v>383.6233</v>
       </c>
       <c r="G135" t="n">
-        <v>5.479999999999995</v>
+        <v>5.360499999999994</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5496,7 +5694,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5511,22 +5711,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.43</v>
+        <v>5.48</v>
       </c>
       <c r="C136" t="n">
         <v>5.43</v>
       </c>
       <c r="D136" t="n">
-        <v>5.43</v>
+        <v>5.48</v>
       </c>
       <c r="E136" t="n">
         <v>5.43</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0001</v>
+        <v>27515.4969</v>
       </c>
       <c r="G136" t="n">
-        <v>5.429999999999994</v>
+        <v>5.361833333333327</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5535,7 +5735,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5562,10 +5764,10 @@
         <v>5.43</v>
       </c>
       <c r="F137" t="n">
-        <v>383.8236</v>
+        <v>0.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>5.429999999999994</v>
+        <v>5.360166666666661</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5574,7 +5776,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5601,10 +5805,10 @@
         <v>5.43</v>
       </c>
       <c r="F138" t="n">
-        <v>3938.9456</v>
+        <v>383.8236</v>
       </c>
       <c r="G138" t="n">
-        <v>5.429999999999994</v>
+        <v>5.359666666666661</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5613,7 +5817,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5628,22 +5834,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="C139" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="D139" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="E139" t="n">
-        <v>5.42</v>
+        <v>5.43</v>
       </c>
       <c r="F139" t="n">
-        <v>39921.4638</v>
+        <v>3938.9456</v>
       </c>
       <c r="G139" t="n">
-        <v>5.424999999999994</v>
+        <v>5.360999999999994</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5652,7 +5858,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5667,22 +5875,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.37</v>
+        <v>5.42</v>
       </c>
       <c r="C140" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="D140" t="n">
-        <v>5.37</v>
+        <v>5.42</v>
       </c>
       <c r="E140" t="n">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="F140" t="n">
-        <v>7000</v>
+        <v>39921.4638</v>
       </c>
       <c r="G140" t="n">
-        <v>5.389999999999993</v>
+        <v>5.360833333333328</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5691,7 +5899,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5706,22 +5916,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="C141" t="n">
         <v>5.36</v>
       </c>
       <c r="D141" t="n">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="E141" t="n">
         <v>5.36</v>
       </c>
       <c r="F141" t="n">
-        <v>41.3109</v>
+        <v>7000</v>
       </c>
       <c r="G141" t="n">
-        <v>5.359999999999993</v>
+        <v>5.357999999999995</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5730,7 +5940,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5745,22 +5957,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="C142" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="D142" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="E142" t="n">
-        <v>5.35</v>
+        <v>5.36</v>
       </c>
       <c r="F142" t="n">
-        <v>21923.5182</v>
+        <v>41.3109</v>
       </c>
       <c r="G142" t="n">
-        <v>5.354999999999993</v>
+        <v>5.355166666666663</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5769,7 +5981,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5784,22 +5998,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="C143" t="n">
-        <v>5.29</v>
+        <v>5.35</v>
       </c>
       <c r="D143" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="E143" t="n">
-        <v>5.29</v>
+        <v>5.35</v>
       </c>
       <c r="F143" t="n">
-        <v>109335.9397</v>
+        <v>21923.5182</v>
       </c>
       <c r="G143" t="n">
-        <v>5.319999999999993</v>
+        <v>5.352999999999996</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5808,7 +6022,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5823,22 +6039,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.28</v>
+        <v>5.34</v>
       </c>
       <c r="C144" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="D144" t="n">
-        <v>5.28</v>
+        <v>5.34</v>
       </c>
       <c r="E144" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="F144" t="n">
-        <v>32089.1971</v>
+        <v>109335.9397</v>
       </c>
       <c r="G144" t="n">
-        <v>5.284999999999994</v>
+        <v>5.34983333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5847,7 +6063,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,10 +6092,10 @@
         <v>5.28</v>
       </c>
       <c r="F145" t="n">
-        <v>46887.3592</v>
+        <v>32089.1971</v>
       </c>
       <c r="G145" t="n">
-        <v>5.279999999999994</v>
+        <v>5.348666666666662</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5886,7 +6104,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,22 +6121,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="C146" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="D146" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="E146" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="F146" t="n">
-        <v>6000</v>
+        <v>46887.3592</v>
       </c>
       <c r="G146" t="n">
-        <v>5.299999999999994</v>
+        <v>5.347833333333329</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5925,7 +6145,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5940,22 +6162,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.29</v>
+        <v>5.32</v>
       </c>
       <c r="C147" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="D147" t="n">
-        <v>5.29</v>
+        <v>5.32</v>
       </c>
       <c r="E147" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="F147" t="n">
-        <v>7228.9477</v>
+        <v>6000</v>
       </c>
       <c r="G147" t="n">
-        <v>5.299999999999994</v>
+        <v>5.347499999999996</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5964,7 +6186,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5979,22 +6203,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C148" t="n">
         <v>5.28</v>
       </c>
-      <c r="C148" t="n">
-        <v>5.27</v>
-      </c>
       <c r="D148" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E148" t="n">
         <v>5.28</v>
       </c>
-      <c r="E148" t="n">
-        <v>5.27</v>
-      </c>
       <c r="F148" t="n">
-        <v>170658.7519</v>
+        <v>7228.9477</v>
       </c>
       <c r="G148" t="n">
-        <v>5.274999999999993</v>
+        <v>5.346499999999995</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6003,7 +6227,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,22 +6244,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.27</v>
+        <v>5.28</v>
       </c>
       <c r="C149" t="n">
         <v>5.27</v>
       </c>
       <c r="D149" t="n">
-        <v>5.27</v>
+        <v>5.28</v>
       </c>
       <c r="E149" t="n">
         <v>5.27</v>
       </c>
       <c r="F149" t="n">
-        <v>28690.2022</v>
+        <v>170658.7519</v>
       </c>
       <c r="G149" t="n">
-        <v>5.269999999999992</v>
+        <v>5.345666666666662</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6042,7 +6268,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6057,22 +6285,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="C150" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="D150" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="E150" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="F150" t="n">
-        <v>39921.4638</v>
+        <v>28690.2022</v>
       </c>
       <c r="G150" t="n">
-        <v>5.274999999999993</v>
+        <v>5.344833333333328</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6081,7 +6309,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,10 +6338,10 @@
         <v>5.28</v>
       </c>
       <c r="F151" t="n">
-        <v>46266.5915</v>
+        <v>39921.4638</v>
       </c>
       <c r="G151" t="n">
-        <v>5.279999999999994</v>
+        <v>5.344999999999995</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6120,7 +6350,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6135,22 +6367,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="C152" t="n">
-        <v>5.31</v>
+        <v>5.28</v>
       </c>
       <c r="D152" t="n">
-        <v>5.31</v>
+        <v>5.28</v>
       </c>
       <c r="E152" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="F152" t="n">
-        <v>123954.1794</v>
+        <v>46266.5915</v>
       </c>
       <c r="G152" t="n">
-        <v>5.294999999999993</v>
+        <v>5.344833333333328</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6159,7 +6391,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6174,22 +6408,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="C153" t="n">
-        <v>5.45</v>
+        <v>5.31</v>
       </c>
       <c r="D153" t="n">
-        <v>5.45</v>
+        <v>5.31</v>
       </c>
       <c r="E153" t="n">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="F153" t="n">
-        <v>1372430.6081</v>
+        <v>123954.1794</v>
       </c>
       <c r="G153" t="n">
-        <v>5.379999999999992</v>
+        <v>5.34516666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6198,7 +6432,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6213,22 +6449,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.52</v>
+        <v>5.36</v>
       </c>
       <c r="C154" t="n">
-        <v>5.52</v>
+        <v>5.45</v>
       </c>
       <c r="D154" t="n">
-        <v>5.52</v>
+        <v>5.45</v>
       </c>
       <c r="E154" t="n">
-        <v>5.52</v>
+        <v>5.36</v>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>1372430.6081</v>
       </c>
       <c r="G154" t="n">
-        <v>5.484999999999992</v>
+        <v>5.348166666666661</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6237,7 +6473,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6255,19 +6493,19 @@
         <v>5.52</v>
       </c>
       <c r="C155" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="D155" t="n">
-        <v>5.53</v>
+        <v>5.52</v>
       </c>
       <c r="E155" t="n">
         <v>5.52</v>
       </c>
       <c r="F155" t="n">
-        <v>121913.353</v>
+        <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>5.524999999999993</v>
+        <v>5.352333333333328</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6276,7 +6514,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6291,22 +6531,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.64</v>
+        <v>5.52</v>
       </c>
       <c r="C156" t="n">
-        <v>5.7</v>
+        <v>5.53</v>
       </c>
       <c r="D156" t="n">
-        <v>5.7</v>
+        <v>5.53</v>
       </c>
       <c r="E156" t="n">
-        <v>5.64</v>
+        <v>5.52</v>
       </c>
       <c r="F156" t="n">
-        <v>167105.5694</v>
+        <v>121913.353</v>
       </c>
       <c r="G156" t="n">
-        <v>5.614999999999993</v>
+        <v>5.35666666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6315,7 +6555,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,22 +6572,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.73</v>
+        <v>5.64</v>
       </c>
       <c r="C157" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="D157" t="n">
-        <v>5.95</v>
+        <v>5.7</v>
       </c>
       <c r="E157" t="n">
-        <v>5.73</v>
+        <v>5.64</v>
       </c>
       <c r="F157" t="n">
-        <v>672511.6854</v>
+        <v>167105.5694</v>
       </c>
       <c r="G157" t="n">
-        <v>5.714999999999993</v>
+        <v>5.363833333333328</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6354,7 +6596,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6369,22 +6613,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="C158" t="n">
-        <v>5.89</v>
+        <v>5.73</v>
       </c>
       <c r="D158" t="n">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="E158" t="n">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="F158" t="n">
-        <v>51656.8402</v>
+        <v>672511.6854</v>
       </c>
       <c r="G158" t="n">
-        <v>5.809999999999993</v>
+        <v>5.373666666666661</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6393,7 +6637,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6408,22 +6654,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.92</v>
+        <v>5.76</v>
       </c>
       <c r="C159" t="n">
-        <v>5.93</v>
+        <v>5.89</v>
       </c>
       <c r="D159" t="n">
-        <v>5.95</v>
+        <v>5.89</v>
       </c>
       <c r="E159" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
       <c r="F159" t="n">
-        <v>240226.2527</v>
+        <v>51656.8402</v>
       </c>
       <c r="G159" t="n">
-        <v>5.909999999999993</v>
+        <v>5.385166666666661</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6432,7 +6678,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6447,22 +6695,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.83</v>
+        <v>5.92</v>
       </c>
       <c r="C160" t="n">
-        <v>5.82</v>
+        <v>5.93</v>
       </c>
       <c r="D160" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="E160" t="n">
         <v>5.82</v>
       </c>
       <c r="F160" t="n">
-        <v>2015269.5714</v>
+        <v>240226.2527</v>
       </c>
       <c r="G160" t="n">
-        <v>5.874999999999993</v>
+        <v>5.395499999999995</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6471,35 +6719,39 @@
         <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>5.19</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1.137581888246628</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="C161" t="n">
         <v>5.82</v>
       </c>
-      <c r="C161" t="n">
-        <v>5.84</v>
-      </c>
       <c r="D161" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="E161" t="n">
         <v>5.82</v>
       </c>
       <c r="F161" t="n">
-        <v>70738.80039999999</v>
+        <v>2015269.5714</v>
       </c>
       <c r="G161" t="n">
-        <v>5.829999999999993</v>
+        <v>5.405333333333328</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6522,25 +6774,25 @@
         <v>5.82</v>
       </c>
       <c r="C162" t="n">
-        <v>5.76</v>
+        <v>5.84</v>
       </c>
       <c r="D162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E162" t="n">
         <v>5.82</v>
       </c>
-      <c r="E162" t="n">
-        <v>5.76</v>
-      </c>
       <c r="F162" t="n">
-        <v>185196.2095</v>
+        <v>70738.80039999999</v>
       </c>
       <c r="G162" t="n">
-        <v>5.799999999999994</v>
+        <v>5.415499999999994</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6554,22 +6806,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C163" t="n">
         <v>5.76</v>
       </c>
-      <c r="C163" t="n">
-        <v>5.75</v>
-      </c>
       <c r="D163" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E163" t="n">
         <v>5.76</v>
       </c>
-      <c r="E163" t="n">
-        <v>5.74</v>
-      </c>
       <c r="F163" t="n">
-        <v>48961.5989</v>
+        <v>185196.2095</v>
       </c>
       <c r="G163" t="n">
-        <v>5.754999999999994</v>
+        <v>5.424333333333326</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6598,13 +6850,13 @@
         <v>5.76</v>
       </c>
       <c r="E164" t="n">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="F164" t="n">
-        <v>120000</v>
+        <v>48961.5989</v>
       </c>
       <c r="G164" t="n">
-        <v>5.749999999999994</v>
+        <v>5.431833333333326</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6624,22 +6876,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C165" t="n">
         <v>5.75</v>
       </c>
-      <c r="C165" t="n">
-        <v>5.71</v>
-      </c>
       <c r="D165" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E165" t="n">
         <v>5.75</v>
       </c>
-      <c r="E165" t="n">
-        <v>5.71</v>
-      </c>
       <c r="F165" t="n">
-        <v>13385.5692</v>
+        <v>120000</v>
       </c>
       <c r="G165" t="n">
-        <v>5.729999999999993</v>
+        <v>5.43916666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6659,22 +6911,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.63</v>
+        <v>5.75</v>
       </c>
       <c r="C166" t="n">
-        <v>5.58</v>
+        <v>5.71</v>
       </c>
       <c r="D166" t="n">
-        <v>5.63</v>
+        <v>5.75</v>
       </c>
       <c r="E166" t="n">
-        <v>5.58</v>
+        <v>5.71</v>
       </c>
       <c r="F166" t="n">
-        <v>1542.5496</v>
+        <v>13385.5692</v>
       </c>
       <c r="G166" t="n">
-        <v>5.644999999999992</v>
+        <v>5.445833333333326</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6694,22 +6946,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.55</v>
+        <v>5.63</v>
       </c>
       <c r="C167" t="n">
-        <v>5.54</v>
+        <v>5.58</v>
       </c>
       <c r="D167" t="n">
-        <v>5.55</v>
+        <v>5.63</v>
       </c>
       <c r="E167" t="n">
-        <v>5.53</v>
+        <v>5.58</v>
       </c>
       <c r="F167" t="n">
-        <v>363419.1007</v>
+        <v>1542.5496</v>
       </c>
       <c r="G167" t="n">
-        <v>5.559999999999992</v>
+        <v>5.451333333333325</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6729,22 +6981,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C168" t="n">
         <v>5.54</v>
       </c>
-      <c r="C168" t="n">
-        <v>5.56</v>
-      </c>
       <c r="D168" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="E168" t="n">
-        <v>5.51</v>
+        <v>5.53</v>
       </c>
       <c r="F168" t="n">
-        <v>126972.1195</v>
+        <v>363419.1007</v>
       </c>
       <c r="G168" t="n">
-        <v>5.549999999999991</v>
+        <v>5.456333333333325</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6764,22 +7016,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.82</v>
+        <v>5.54</v>
       </c>
       <c r="C169" t="n">
-        <v>5.82</v>
+        <v>5.56</v>
       </c>
       <c r="D169" t="n">
-        <v>5.82</v>
+        <v>5.57</v>
       </c>
       <c r="E169" t="n">
-        <v>5.82</v>
+        <v>5.51</v>
       </c>
       <c r="F169" t="n">
-        <v>1000</v>
+        <v>126972.1195</v>
       </c>
       <c r="G169" t="n">
-        <v>5.689999999999991</v>
+        <v>5.461499999999992</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6802,19 +7054,19 @@
         <v>5.82</v>
       </c>
       <c r="C170" t="n">
-        <v>5.58</v>
+        <v>5.82</v>
       </c>
       <c r="D170" t="n">
         <v>5.82</v>
       </c>
       <c r="E170" t="n">
-        <v>5.58</v>
+        <v>5.82</v>
       </c>
       <c r="F170" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="G170" t="n">
-        <v>5.69999999999999</v>
+        <v>5.469999999999993</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6834,22 +7086,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.62</v>
+        <v>5.82</v>
       </c>
       <c r="C171" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="D171" t="n">
-        <v>5.62</v>
+        <v>5.82</v>
       </c>
       <c r="E171" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="F171" t="n">
-        <v>42356.8402</v>
+        <v>180</v>
       </c>
       <c r="G171" t="n">
-        <v>5.599999999999991</v>
+        <v>5.475166666666659</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6869,22 +7121,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.7</v>
+        <v>5.62</v>
       </c>
       <c r="C172" t="n">
-        <v>5.7</v>
+        <v>5.62</v>
       </c>
       <c r="D172" t="n">
-        <v>5.7</v>
+        <v>5.62</v>
       </c>
       <c r="E172" t="n">
-        <v>5.7</v>
+        <v>5.62</v>
       </c>
       <c r="F172" t="n">
-        <v>50000.0597</v>
+        <v>42356.8402</v>
       </c>
       <c r="G172" t="n">
-        <v>5.65999999999999</v>
+        <v>5.480333333333325</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6907,19 +7159,19 @@
         <v>5.7</v>
       </c>
       <c r="C173" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="D173" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="E173" t="n">
         <v>5.7</v>
       </c>
       <c r="F173" t="n">
-        <v>167847.4869</v>
+        <v>50000.0597</v>
       </c>
       <c r="G173" t="n">
-        <v>5.79999999999999</v>
+        <v>5.486666666666659</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6939,22 +7191,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.81</v>
+        <v>5.7</v>
       </c>
       <c r="C174" t="n">
-        <v>5.81</v>
+        <v>5.9</v>
       </c>
       <c r="D174" t="n">
-        <v>5.81</v>
+        <v>5.9</v>
       </c>
       <c r="E174" t="n">
-        <v>5.81</v>
+        <v>5.7</v>
       </c>
       <c r="F174" t="n">
-        <v>42985.56</v>
+        <v>167847.4869</v>
       </c>
       <c r="G174" t="n">
-        <v>5.85499999999999</v>
+        <v>5.495499999999992</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6977,19 +7229,19 @@
         <v>5.81</v>
       </c>
       <c r="C175" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="D175" t="n">
         <v>5.81</v>
       </c>
       <c r="E175" t="n">
-        <v>5.71</v>
+        <v>5.81</v>
       </c>
       <c r="F175" t="n">
-        <v>54852.3285</v>
+        <v>42985.56</v>
       </c>
       <c r="G175" t="n">
-        <v>5.799999999999989</v>
+        <v>5.502499999999992</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7012,19 +7264,19 @@
         <v>5.81</v>
       </c>
       <c r="C176" t="n">
-        <v>5.98</v>
+        <v>5.79</v>
       </c>
       <c r="D176" t="n">
-        <v>5.98</v>
+        <v>5.81</v>
       </c>
       <c r="E176" t="n">
-        <v>5.8</v>
+        <v>5.71</v>
       </c>
       <c r="F176" t="n">
-        <v>2179040.2659</v>
+        <v>54852.3285</v>
       </c>
       <c r="G176" t="n">
-        <v>5.884999999999989</v>
+        <v>5.509166666666659</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7044,22 +7296,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.97</v>
+        <v>5.81</v>
       </c>
       <c r="C177" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="D177" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E177" t="n">
-        <v>5.97</v>
+        <v>5.8</v>
       </c>
       <c r="F177" t="n">
-        <v>3234.7108</v>
+        <v>2179040.2659</v>
       </c>
       <c r="G177" t="n">
-        <v>5.974999999999989</v>
+        <v>5.518999999999993</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7091,10 +7343,10 @@
         <v>5.97</v>
       </c>
       <c r="F178" t="n">
-        <v>22638.42761926298</v>
+        <v>3234.7108</v>
       </c>
       <c r="G178" t="n">
-        <v>5.969999999999988</v>
+        <v>5.528666666666661</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7114,22 +7366,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C179" t="n">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="D179" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="E179" t="n">
-        <v>5.93</v>
+        <v>5.97</v>
       </c>
       <c r="F179" t="n">
-        <v>213328.3137</v>
+        <v>22638.42761926298</v>
       </c>
       <c r="G179" t="n">
-        <v>5.959999999999988</v>
+        <v>5.537499999999994</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7149,22 +7401,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.89</v>
+        <v>5.96</v>
       </c>
       <c r="C180" t="n">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="D180" t="n">
-        <v>5.89</v>
+        <v>5.96</v>
       </c>
       <c r="E180" t="n">
-        <v>5.89</v>
+        <v>5.93</v>
       </c>
       <c r="F180" t="n">
-        <v>33657.287</v>
+        <v>213328.3137</v>
       </c>
       <c r="G180" t="n">
-        <v>5.919999999999989</v>
+        <v>5.545999999999994</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7184,22 +7436,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="C181" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="D181" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="E181" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="F181" t="n">
-        <v>22472.0884</v>
+        <v>33657.287</v>
       </c>
       <c r="G181" t="n">
-        <v>5.91499999999999</v>
+        <v>5.552833333333327</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7219,22 +7471,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C182" t="n">
         <v>5.94</v>
       </c>
       <c r="D182" t="n">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="E182" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F182" t="n">
-        <v>142867.4967629195</v>
+        <v>22472.0884</v>
       </c>
       <c r="G182" t="n">
-        <v>5.939999999999991</v>
+        <v>5.559666666666661</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7254,22 +7506,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C183" t="n">
         <v>5.94</v>
       </c>
-      <c r="C183" t="n">
-        <v>5.83</v>
-      </c>
       <c r="D183" t="n">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="E183" t="n">
-        <v>5.83</v>
+        <v>5.9</v>
       </c>
       <c r="F183" t="n">
-        <v>184274.8388</v>
+        <v>142867.4967629195</v>
       </c>
       <c r="G183" t="n">
-        <v>5.884999999999989</v>
+        <v>5.566499999999994</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7292,19 +7544,19 @@
         <v>5.94</v>
       </c>
       <c r="C184" t="n">
-        <v>5.94</v>
+        <v>5.83</v>
       </c>
       <c r="D184" t="n">
         <v>5.94</v>
       </c>
       <c r="E184" t="n">
-        <v>5.94</v>
+        <v>5.83</v>
       </c>
       <c r="F184" t="n">
-        <v>74804.5254</v>
+        <v>184274.8388</v>
       </c>
       <c r="G184" t="n">
-        <v>5.884999999999989</v>
+        <v>5.571999999999994</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7324,22 +7576,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.96</v>
+        <v>5.94</v>
       </c>
       <c r="C185" t="n">
         <v>5.94</v>
       </c>
       <c r="D185" t="n">
-        <v>5.99</v>
+        <v>5.94</v>
       </c>
       <c r="E185" t="n">
         <v>5.94</v>
       </c>
       <c r="F185" t="n">
-        <v>315456.5148</v>
+        <v>74804.5254</v>
       </c>
       <c r="G185" t="n">
-        <v>5.93999999999999</v>
+        <v>5.579499999999994</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7359,22 +7611,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C186" t="n">
         <v>5.94</v>
       </c>
-      <c r="C186" t="n">
-        <v>5.85</v>
-      </c>
       <c r="D186" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E186" t="n">
         <v>5.94</v>
       </c>
-      <c r="E186" t="n">
-        <v>5.85</v>
-      </c>
       <c r="F186" t="n">
-        <v>527.0848999999999</v>
+        <v>315456.5148</v>
       </c>
       <c r="G186" t="n">
-        <v>5.894999999999989</v>
+        <v>5.588833333333327</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7394,22 +7646,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C187" t="n">
         <v>5.85</v>
       </c>
-      <c r="C187" t="n">
-        <v>5.91</v>
-      </c>
       <c r="D187" t="n">
-        <v>5.91</v>
+        <v>5.94</v>
       </c>
       <c r="E187" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="F187" t="n">
-        <v>41642.7437</v>
+        <v>527.0848999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>5.879999999999988</v>
+        <v>5.596666666666661</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7429,22 +7681,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="C188" t="n">
-        <v>5.84</v>
+        <v>5.91</v>
       </c>
       <c r="D188" t="n">
-        <v>5.84</v>
+        <v>5.91</v>
       </c>
       <c r="E188" t="n">
         <v>5.84</v>
       </c>
       <c r="F188" t="n">
-        <v>20526.5002</v>
+        <v>41642.7437</v>
       </c>
       <c r="G188" t="n">
-        <v>5.874999999999988</v>
+        <v>5.605666666666662</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7467,19 +7719,19 @@
         <v>5.84</v>
       </c>
       <c r="C189" t="n">
-        <v>5.99</v>
+        <v>5.84</v>
       </c>
       <c r="D189" t="n">
-        <v>5.99</v>
+        <v>5.84</v>
       </c>
       <c r="E189" t="n">
         <v>5.84</v>
       </c>
       <c r="F189" t="n">
-        <v>1231531.562987434</v>
+        <v>20526.5002</v>
       </c>
       <c r="G189" t="n">
-        <v>5.914999999999988</v>
+        <v>5.613499999999994</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7499,22 +7751,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.98</v>
+        <v>5.84</v>
       </c>
       <c r="C190" t="n">
-        <v>5.98</v>
+        <v>5.99</v>
       </c>
       <c r="D190" t="n">
-        <v>5.98</v>
+        <v>5.99</v>
       </c>
       <c r="E190" t="n">
-        <v>5.98</v>
+        <v>5.84</v>
       </c>
       <c r="F190" t="n">
-        <v>36461.703</v>
+        <v>1231531.562987434</v>
       </c>
       <c r="G190" t="n">
-        <v>5.984999999999989</v>
+        <v>5.623833333333327</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7534,22 +7786,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="C191" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="D191" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="E191" t="n">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="F191" t="n">
-        <v>186928.8048821824</v>
+        <v>36461.703</v>
       </c>
       <c r="G191" t="n">
-        <v>5.959999999999989</v>
+        <v>5.633499999999995</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7569,22 +7821,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="C192" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="D192" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="E192" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="F192" t="n">
-        <v>22511.6153</v>
+        <v>186928.8048821824</v>
       </c>
       <c r="G192" t="n">
-        <v>5.894999999999989</v>
+        <v>5.642499999999996</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7604,22 +7856,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="C193" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="D193" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E193" t="n">
-        <v>5.83</v>
+        <v>5.85</v>
       </c>
       <c r="F193" t="n">
-        <v>29321.0189</v>
+        <v>22511.6153</v>
       </c>
       <c r="G193" t="n">
-        <v>5.844999999999988</v>
+        <v>5.649999999999996</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7645,16 +7897,16 @@
         <v>5.84</v>
       </c>
       <c r="D194" t="n">
-        <v>5.84</v>
+        <v>5.91</v>
       </c>
       <c r="E194" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F194" t="n">
-        <v>8689.939700000001</v>
+        <v>29321.0189</v>
       </c>
       <c r="G194" t="n">
-        <v>5.839999999999988</v>
+        <v>5.657166666666662</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7677,19 +7929,19 @@
         <v>5.84</v>
       </c>
       <c r="C195" t="n">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="D195" t="n">
         <v>5.84</v>
       </c>
       <c r="E195" t="n">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="F195" t="n">
-        <v>44765.6694</v>
+        <v>8689.939700000001</v>
       </c>
       <c r="G195" t="n">
-        <v>5.819999999999988</v>
+        <v>5.662333333333328</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7709,22 +7961,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C196" t="n">
         <v>5.8</v>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
         <v>5.84</v>
-      </c>
-      <c r="D196" t="n">
-        <v>5.85</v>
       </c>
       <c r="E196" t="n">
         <v>5.8</v>
       </c>
       <c r="F196" t="n">
-        <v>133031.622</v>
+        <v>44765.6694</v>
       </c>
       <c r="G196" t="n">
-        <v>5.819999999999988</v>
+        <v>5.668499999999995</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7744,22 +7996,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.89</v>
+        <v>5.8</v>
       </c>
       <c r="C197" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="D197" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="E197" t="n">
-        <v>5.89</v>
+        <v>5.8</v>
       </c>
       <c r="F197" t="n">
-        <v>4154.1415</v>
+        <v>133031.622</v>
       </c>
       <c r="G197" t="n">
-        <v>5.864999999999988</v>
+        <v>5.675333333333328</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7782,19 +8034,19 @@
         <v>5.89</v>
       </c>
       <c r="C198" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="D198" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="E198" t="n">
         <v>5.89</v>
       </c>
       <c r="F198" t="n">
-        <v>265269.1413</v>
+        <v>4154.1415</v>
       </c>
       <c r="G198" t="n">
-        <v>5.914999999999988</v>
+        <v>5.682999999999995</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7814,22 +8066,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D199" t="n">
         <v>5.97</v>
       </c>
-      <c r="C199" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D199" t="n">
-        <v>6.06</v>
-      </c>
       <c r="E199" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="F199" t="n">
-        <v>2155301.567230384</v>
+        <v>265269.1413</v>
       </c>
       <c r="G199" t="n">
-        <v>5.989999999999988</v>
+        <v>5.691499999999994</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7849,22 +8101,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="C200" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="D200" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="E200" t="n">
         <v>5.97</v>
       </c>
       <c r="F200" t="n">
-        <v>93291.80286280991</v>
+        <v>2155301.567230384</v>
       </c>
       <c r="G200" t="n">
-        <v>6.004999999999987</v>
+        <v>5.701833333333328</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7884,22 +8136,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>6</v>
+      </c>
+      <c r="C201" t="n">
         <v>5.97</v>
       </c>
-      <c r="C201" t="n">
-        <v>5.91</v>
-      </c>
       <c r="D201" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E201" t="n">
         <v>5.97</v>
       </c>
-      <c r="E201" t="n">
-        <v>5.91</v>
-      </c>
       <c r="F201" t="n">
-        <v>3748.7227</v>
+        <v>93291.80286280991</v>
       </c>
       <c r="G201" t="n">
-        <v>5.939999999999987</v>
+        <v>5.711999999999994</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7919,22 +8171,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C202" t="n">
         <v>5.91</v>
       </c>
-      <c r="C202" t="n">
-        <v>5.85</v>
-      </c>
       <c r="D202" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E202" t="n">
         <v>5.91</v>
       </c>
-      <c r="E202" t="n">
-        <v>5.83</v>
-      </c>
       <c r="F202" t="n">
-        <v>96918.2335</v>
+        <v>3748.7227</v>
       </c>
       <c r="G202" t="n">
-        <v>5.879999999999988</v>
+        <v>5.721166666666662</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7954,22 +8206,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C203" t="n">
         <v>5.85</v>
       </c>
-      <c r="C203" t="n">
-        <v>5.8</v>
-      </c>
       <c r="D203" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E203" t="n">
-        <v>5.8</v>
+        <v>5.83</v>
       </c>
       <c r="F203" t="n">
-        <v>471636.8029</v>
+        <v>96918.2335</v>
       </c>
       <c r="G203" t="n">
-        <v>5.824999999999989</v>
+        <v>5.729499999999995</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7989,22 +8241,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="C204" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="D204" t="n">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E204" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="F204" t="n">
-        <v>180645.1081</v>
+        <v>471636.8029</v>
       </c>
       <c r="G204" t="n">
-        <v>5.819999999999989</v>
+        <v>5.737999999999995</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8027,19 +8279,19 @@
         <v>5.84</v>
       </c>
       <c r="C205" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D205" t="n">
         <v>5.84</v>
       </c>
       <c r="E205" t="n">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="F205" t="n">
-        <v>68572.6905</v>
+        <v>180645.1081</v>
       </c>
       <c r="G205" t="n">
-        <v>5.824999999999989</v>
+        <v>5.747333333333328</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8059,22 +8311,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C206" t="n">
         <v>5.81</v>
       </c>
-      <c r="C206" t="n">
-        <v>5.77</v>
-      </c>
       <c r="D206" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="E206" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F206" t="n">
-        <v>291352.0858</v>
+        <v>68572.6905</v>
       </c>
       <c r="G206" t="n">
-        <v>5.789999999999988</v>
+        <v>5.756166666666662</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8097,19 +8349,19 @@
         <v>5.81</v>
       </c>
       <c r="C207" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="D207" t="n">
         <v>5.81</v>
       </c>
       <c r="E207" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="F207" t="n">
-        <v>78096.63310000001</v>
+        <v>291352.0858</v>
       </c>
       <c r="G207" t="n">
-        <v>5.789999999999988</v>
+        <v>5.763666666666662</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8129,22 +8381,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="C208" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D208" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="E208" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F208" t="n">
-        <v>344</v>
+        <v>78096.63310000001</v>
       </c>
       <c r="G208" t="n">
-        <v>5.814999999999989</v>
+        <v>5.772499999999996</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8164,22 +8416,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="C209" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="D209" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E209" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="F209" t="n">
-        <v>123334.3569</v>
+        <v>344</v>
       </c>
       <c r="G209" t="n">
-        <v>5.85499999999999</v>
+        <v>5.781666666666663</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8199,22 +8451,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="C210" t="n">
-        <v>6.1</v>
+        <v>5.89</v>
       </c>
       <c r="D210" t="n">
-        <v>6.1</v>
+        <v>5.89</v>
       </c>
       <c r="E210" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="F210" t="n">
-        <v>933872.008</v>
+        <v>123334.3569</v>
       </c>
       <c r="G210" t="n">
-        <v>5.99499999999999</v>
+        <v>5.791999999999996</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8234,22 +8486,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C211" t="n">
         <v>6.1</v>
       </c>
-      <c r="C211" t="n">
-        <v>5.93</v>
-      </c>
       <c r="D211" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="E211" t="n">
-        <v>5.93</v>
+        <v>5.96</v>
       </c>
       <c r="F211" t="n">
-        <v>1004546.6113</v>
+        <v>933872.008</v>
       </c>
       <c r="G211" t="n">
-        <v>6.01499999999999</v>
+        <v>5.805666666666664</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8269,22 +8521,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="C212" t="n">
-        <v>6.03</v>
+        <v>5.93</v>
       </c>
       <c r="D212" t="n">
-        <v>6.09</v>
+        <v>6.13</v>
       </c>
       <c r="E212" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="F212" t="n">
-        <v>370709.4071</v>
+        <v>1004546.6113</v>
       </c>
       <c r="G212" t="n">
-        <v>5.979999999999991</v>
+        <v>5.816499999999997</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8304,22 +8556,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C213" t="n">
         <v>6.03</v>
-      </c>
-      <c r="C213" t="n">
-        <v>6.06</v>
       </c>
       <c r="D213" t="n">
         <v>6.09</v>
       </c>
       <c r="E213" t="n">
-        <v>6.03</v>
+        <v>6</v>
       </c>
       <c r="F213" t="n">
-        <v>867302.0906</v>
+        <v>370709.4071</v>
       </c>
       <c r="G213" t="n">
-        <v>6.044999999999991</v>
+        <v>5.828499999999996</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8339,22 +8591,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C214" t="n">
         <v>6.06</v>
       </c>
-      <c r="C214" t="n">
-        <v>6.15</v>
-      </c>
       <c r="D214" t="n">
-        <v>6.15</v>
+        <v>6.09</v>
       </c>
       <c r="E214" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="F214" t="n">
-        <v>1254416.9702</v>
+        <v>867302.0906</v>
       </c>
       <c r="G214" t="n">
-        <v>6.10499999999999</v>
+        <v>5.838666666666664</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8374,22 +8626,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C215" t="n">
         <v>6.15</v>
       </c>
-      <c r="C215" t="n">
-        <v>6.18</v>
-      </c>
       <c r="D215" t="n">
-        <v>6.18</v>
+        <v>6.15</v>
       </c>
       <c r="E215" t="n">
-        <v>6.15</v>
+        <v>6.06</v>
       </c>
       <c r="F215" t="n">
-        <v>505437.3132</v>
+        <v>1254416.9702</v>
       </c>
       <c r="G215" t="n">
-        <v>6.16499999999999</v>
+        <v>5.849166666666664</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8409,22 +8661,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="C216" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="D216" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E216" t="n">
-        <v>6.09</v>
+        <v>6.15</v>
       </c>
       <c r="F216" t="n">
-        <v>651058.8092500075</v>
+        <v>505437.3132</v>
       </c>
       <c r="G216" t="n">
-        <v>6.13499999999999</v>
+        <v>5.859999999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8444,22 +8696,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="C217" t="n">
-        <v>5.93</v>
+        <v>6.09</v>
       </c>
       <c r="D217" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E217" t="n">
         <v>6.09</v>
       </c>
-      <c r="E217" t="n">
-        <v>5.93</v>
-      </c>
       <c r="F217" t="n">
-        <v>50174</v>
+        <v>651058.8092500075</v>
       </c>
       <c r="G217" t="n">
-        <v>6.009999999999991</v>
+        <v>5.866499999999998</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8479,22 +8731,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
       <c r="C218" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D218" t="n">
-        <v>5.97</v>
+        <v>6.09</v>
       </c>
       <c r="E218" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F218" t="n">
-        <v>37554.9096</v>
+        <v>50174</v>
       </c>
       <c r="G218" t="n">
-        <v>5.939999999999991</v>
+        <v>5.869833333333331</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8514,22 +8766,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="C219" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="D219" t="n">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="E219" t="n">
-        <v>6.05</v>
+        <v>5.95</v>
       </c>
       <c r="F219" t="n">
-        <v>53706.9818</v>
+        <v>37554.9096</v>
       </c>
       <c r="G219" t="n">
-        <v>5.999999999999991</v>
+        <v>5.870833333333331</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8549,22 +8801,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.1</v>
+        <v>6.07</v>
       </c>
       <c r="C220" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="D220" t="n">
-        <v>6.12</v>
+        <v>6.07</v>
       </c>
       <c r="E220" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F220" t="n">
-        <v>181956.0674</v>
+        <v>53706.9818</v>
       </c>
       <c r="G220" t="n">
-        <v>6.044999999999991</v>
+        <v>5.872833333333331</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8584,22 +8836,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C221" t="n">
         <v>6.04</v>
       </c>
-      <c r="C221" t="n">
-        <v>5.97</v>
-      </c>
       <c r="D221" t="n">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="E221" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="F221" t="n">
-        <v>93849.5064</v>
+        <v>181956.0674</v>
       </c>
       <c r="G221" t="n">
-        <v>6.00499999999999</v>
+        <v>5.876499999999997</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8619,22 +8871,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="C222" t="n">
         <v>5.97</v>
       </c>
       <c r="D222" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="E222" t="n">
         <v>5.97</v>
       </c>
       <c r="F222" t="n">
-        <v>112433.7364</v>
+        <v>93849.5064</v>
       </c>
       <c r="G222" t="n">
-        <v>5.96999999999999</v>
+        <v>5.878666666666665</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8654,22 +8906,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>6</v>
+      </c>
+      <c r="C223" t="n">
         <v>5.97</v>
       </c>
-      <c r="C223" t="n">
-        <v>5.92</v>
-      </c>
       <c r="D223" t="n">
+        <v>6</v>
+      </c>
+      <c r="E223" t="n">
         <v>5.97</v>
       </c>
-      <c r="E223" t="n">
-        <v>5.92</v>
-      </c>
       <c r="F223" t="n">
-        <v>135877.8728</v>
+        <v>112433.7364</v>
       </c>
       <c r="G223" t="n">
-        <v>5.94499999999999</v>
+        <v>5.882166666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8689,22 +8941,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C224" t="n">
         <v>5.92</v>
       </c>
-      <c r="C224" t="n">
-        <v>5.86</v>
-      </c>
       <c r="D224" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E224" t="n">
         <v>5.92</v>
       </c>
-      <c r="E224" t="n">
-        <v>5.85</v>
-      </c>
       <c r="F224" t="n">
-        <v>14496.9562</v>
+        <v>135877.8728</v>
       </c>
       <c r="G224" t="n">
-        <v>5.88999999999999</v>
+        <v>5.885</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8724,22 +8976,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>5.84</v>
+        <v>5.92</v>
       </c>
       <c r="C225" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="D225" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E225" t="n">
         <v>5.85</v>
       </c>
-      <c r="E225" t="n">
-        <v>5.8</v>
-      </c>
       <c r="F225" t="n">
-        <v>656544.623</v>
+        <v>14496.9562</v>
       </c>
       <c r="G225" t="n">
-        <v>5.82999999999999</v>
+        <v>5.886833333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8759,22 +9011,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C226" t="n">
         <v>5.8</v>
       </c>
-      <c r="C226" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D226" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="E226" t="n">
         <v>5.8</v>
       </c>
       <c r="F226" t="n">
-        <v>171965.0224</v>
+        <v>656544.623</v>
       </c>
       <c r="G226" t="n">
-        <v>5.804999999999991</v>
+        <v>5.888333333333334</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8794,22 +9046,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="C227" t="n">
         <v>5.81</v>
       </c>
       <c r="D227" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="E227" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="F227" t="n">
-        <v>7646.4684</v>
+        <v>171965.0224</v>
       </c>
       <c r="G227" t="n">
-        <v>5.80999999999999</v>
+        <v>5.892166666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8829,22 +9081,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="C228" t="n">
         <v>5.81</v>
       </c>
       <c r="D228" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="E228" t="n">
         <v>5.81</v>
       </c>
       <c r="F228" t="n">
-        <v>5812.9598</v>
+        <v>7646.4684</v>
       </c>
       <c r="G228" t="n">
-        <v>5.80999999999999</v>
+        <v>5.896666666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8864,22 +9116,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="C229" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D229" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="E229" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F229" t="n">
-        <v>111724.8647</v>
+        <v>5812.9598</v>
       </c>
       <c r="G229" t="n">
-        <v>5.814999999999991</v>
+        <v>5.900833333333334</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8899,22 +9151,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="C230" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="D230" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="E230" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="F230" t="n">
-        <v>96</v>
+        <v>111724.8647</v>
       </c>
       <c r="G230" t="n">
-        <v>5.879999999999992</v>
+        <v>5.900833333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8934,22 +9186,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="C231" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="D231" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="E231" t="n">
-        <v>5.82</v>
+        <v>5.94</v>
       </c>
       <c r="F231" t="n">
         <v>96</v>
       </c>
       <c r="G231" t="n">
-        <v>5.879999999999992</v>
+        <v>5.906833333333334</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8981,10 +9233,10 @@
         <v>5.82</v>
       </c>
       <c r="F232" t="n">
-        <v>4102.0852</v>
+        <v>96</v>
       </c>
       <c r="G232" t="n">
-        <v>5.819999999999991</v>
+        <v>5.910166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9004,22 +9256,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="C233" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="D233" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="E233" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="F233" t="n">
-        <v>2545.7873</v>
+        <v>4102.0852</v>
       </c>
       <c r="G233" t="n">
-        <v>5.83499999999999</v>
+        <v>5.912166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9051,10 +9303,10 @@
         <v>5.85</v>
       </c>
       <c r="F234" t="n">
-        <v>17726.9119</v>
+        <v>2545.7873</v>
       </c>
       <c r="G234" t="n">
-        <v>5.849999999999991</v>
+        <v>5.911333333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9086,10 +9338,10 @@
         <v>5.85</v>
       </c>
       <c r="F235" t="n">
-        <v>999.7599</v>
+        <v>17726.9119</v>
       </c>
       <c r="G235" t="n">
-        <v>5.849999999999992</v>
+        <v>5.912000000000002</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9112,19 +9364,19 @@
         <v>5.85</v>
       </c>
       <c r="C236" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="D236" t="n">
         <v>5.85</v>
       </c>
       <c r="E236" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="F236" t="n">
-        <v>92242.7939</v>
+        <v>999.7599</v>
       </c>
       <c r="G236" t="n">
-        <v>5.829999999999992</v>
+        <v>5.913000000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9139,6 +9391,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D237" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F237" t="n">
+        <v>92242.7939</v>
+      </c>
+      <c r="G237" t="n">
+        <v>5.910166666666668</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest WET.xlsx
+++ b/BackTest/2019-11-20 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>290595.2765</v>
       </c>
       <c r="G2" t="n">
+        <v>5.724000000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.431666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>457364.2293</v>
       </c>
       <c r="G3" t="n">
+        <v>5.701333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.437499999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>30623.081</v>
       </c>
       <c r="G4" t="n">
+        <v>5.694666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.445666666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>20099</v>
       </c>
       <c r="G5" t="n">
+        <v>5.688</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.453833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>99</v>
       </c>
       <c r="G6" t="n">
+        <v>5.679999999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.459333333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>115298</v>
       </c>
       <c r="G7" t="n">
+        <v>5.676666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.463833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1200199.749</v>
       </c>
       <c r="G8" t="n">
+        <v>5.664666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.467666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>89</v>
       </c>
       <c r="G9" t="n">
+        <v>5.657999999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.4735</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>576933.5091</v>
       </c>
       <c r="G10" t="n">
+        <v>5.635999999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.477000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1102989.2642</v>
       </c>
       <c r="G11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.477166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1604032.1343</v>
       </c>
       <c r="G12" t="n">
+        <v>5.569999999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.478666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>197898.749</v>
       </c>
       <c r="G13" t="n">
+        <v>5.537333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.479333333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>40956.5746</v>
       </c>
       <c r="G14" t="n">
+        <v>5.515333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.4815</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>33788.2867</v>
       </c>
       <c r="G15" t="n">
+        <v>5.483999999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.481666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>271681.0875</v>
       </c>
       <c r="G16" t="n">
+        <v>5.456</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.483833333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>48885.3553</v>
       </c>
       <c r="G17" t="n">
+        <v>5.443333333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.487333333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3494.7741</v>
       </c>
       <c r="G18" t="n">
+        <v>5.444666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.494000000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>154628.0897</v>
       </c>
       <c r="G19" t="n">
+        <v>5.438666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.500000000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>12399.2574</v>
       </c>
       <c r="G20" t="n">
+        <v>5.426</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.504333333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>230718.1818</v>
       </c>
       <c r="G21" t="n">
+        <v>5.414000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.508833333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>926223.8821</v>
       </c>
       <c r="G22" t="n">
+        <v>5.402000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.513000000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,27 @@
         <v>67083.7564</v>
       </c>
       <c r="G23" t="n">
+        <v>5.403333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.52</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.37</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1295,27 @@
         <v>776525.493</v>
       </c>
       <c r="G24" t="n">
+        <v>5.381333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.523000000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.53</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1339,27 @@
         <v>15704.3953</v>
       </c>
       <c r="G25" t="n">
+        <v>5.370000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.524333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.3</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1383,27 @@
         <v>52499.0045</v>
       </c>
       <c r="G26" t="n">
+        <v>5.373333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.525666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.31</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1427,27 @@
         <v>58766.7154</v>
       </c>
       <c r="G27" t="n">
+        <v>5.377333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.526666666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.33</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1471,27 @@
         <v>94750.95419999999</v>
       </c>
       <c r="G28" t="n">
+        <v>5.379333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.527333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.33</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1515,27 @@
         <v>240920.7502</v>
       </c>
       <c r="G29" t="n">
+        <v>5.373333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.528</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.33</v>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1559,27 @@
         <v>45419.8805</v>
       </c>
       <c r="G30" t="n">
+        <v>5.375333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.528</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.3</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1603,27 @@
         <v>125785.2635</v>
       </c>
       <c r="G31" t="n">
+        <v>5.375333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.528333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.3</v>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1647,27 @@
         <v>2976.1003</v>
       </c>
       <c r="G32" t="n">
+        <v>5.371333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.528166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.3</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1691,25 @@
         <v>37157.5254</v>
       </c>
       <c r="G33" t="n">
+        <v>5.351333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.5265</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1733,25 @@
         <v>802131.5754</v>
       </c>
       <c r="G34" t="n">
+        <v>5.328666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.5235</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1775,27 @@
         <v>6800.1219</v>
       </c>
       <c r="G35" t="n">
+        <v>5.312666666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.520333333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.17</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1819,27 @@
         <v>114588.0281</v>
       </c>
       <c r="G36" t="n">
+        <v>5.296666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.516166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.17</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1863,25 @@
         <v>4723.699421965318</v>
       </c>
       <c r="G37" t="n">
+        <v>5.284666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.512166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,22 +1905,27 @@
         <v>9691.7696</v>
       </c>
       <c r="G38" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.507499999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>5.19</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1747,24 +1949,25 @@
         <v>117882.6124</v>
       </c>
       <c r="G39" t="n">
+        <v>5.252000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.501833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,26 +1991,25 @@
         <v>288661.6823</v>
       </c>
       <c r="G40" t="n">
+        <v>5.244000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.494833333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,24 +2033,25 @@
         <v>194346.122</v>
       </c>
       <c r="G41" t="n">
+        <v>5.234</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.487166666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1872,24 +2075,25 @@
         <v>6662.463</v>
       </c>
       <c r="G42" t="n">
+        <v>5.224</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.4795</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1913,24 +2117,25 @@
         <v>62660.1986</v>
       </c>
       <c r="G43" t="n">
+        <v>5.214</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.4715</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,24 +2159,25 @@
         <v>541529.9372</v>
       </c>
       <c r="G44" t="n">
+        <v>5.207999999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.463166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1995,24 +2201,25 @@
         <v>38027.31</v>
       </c>
       <c r="G45" t="n">
+        <v>5.199999999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.453333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2036,24 +2243,25 @@
         <v>151607.1594</v>
       </c>
       <c r="G46" t="n">
+        <v>5.191333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.442833333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,24 +2285,25 @@
         <v>42616.1097</v>
       </c>
       <c r="G47" t="n">
+        <v>5.183999999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.430666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2118,24 +2327,25 @@
         <v>183006</v>
       </c>
       <c r="G48" t="n">
+        <v>5.181333333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.419666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2159,24 +2369,25 @@
         <v>290</v>
       </c>
       <c r="G49" t="n">
+        <v>5.186666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.412166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2200,24 +2411,25 @@
         <v>593.7328</v>
       </c>
       <c r="G50" t="n">
+        <v>5.196666666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.405833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2241,24 +2453,25 @@
         <v>95</v>
       </c>
       <c r="G51" t="n">
+        <v>5.207333333333332</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.3995</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,24 +2495,25 @@
         <v>19195.3422</v>
       </c>
       <c r="G52" t="n">
+        <v>5.215999999999998</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.394833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,24 +2537,25 @@
         <v>60209.2586</v>
       </c>
       <c r="G53" t="n">
+        <v>5.224666666666665</v>
+      </c>
+      <c r="H53" t="n">
         <v>5.388666666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,24 +2579,25 @@
         <v>5078.367</v>
       </c>
       <c r="G54" t="n">
+        <v>5.236666666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.381999999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2405,24 +2621,25 @@
         <v>29370.7612</v>
       </c>
       <c r="G55" t="n">
+        <v>5.248666666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.374666666666665</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,24 +2663,25 @@
         <v>70506.5797</v>
       </c>
       <c r="G56" t="n">
+        <v>5.261999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.367333333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2487,24 +2705,25 @@
         <v>232243.443</v>
       </c>
       <c r="G57" t="n">
+        <v>5.282666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.363499999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,24 +2747,25 @@
         <v>30680.3441</v>
       </c>
       <c r="G58" t="n">
+        <v>5.307333333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.359499999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,24 +2789,25 @@
         <v>54514.5907</v>
       </c>
       <c r="G59" t="n">
+        <v>5.324666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.355333333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2610,24 +2831,25 @@
         <v>56573.4832</v>
       </c>
       <c r="G60" t="n">
+        <v>5.337999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.349333333333331</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2651,24 +2873,25 @@
         <v>25364.9986</v>
       </c>
       <c r="G61" t="n">
+        <v>5.351999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>5.343666666666664</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,24 +2915,25 @@
         <v>21189.6865</v>
       </c>
       <c r="G62" t="n">
+        <v>5.369999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>5.342166666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,24 +2957,25 @@
         <v>55249.3774</v>
       </c>
       <c r="G63" t="n">
+        <v>5.385999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.340833333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,24 +2999,25 @@
         <v>92</v>
       </c>
       <c r="G64" t="n">
+        <v>5.401333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>5.338833333333331</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2815,24 +3041,25 @@
         <v>93</v>
       </c>
       <c r="G65" t="n">
+        <v>5.414000000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>5.337333333333331</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,24 +3083,25 @@
         <v>573.2754</v>
       </c>
       <c r="G66" t="n">
+        <v>5.426</v>
+      </c>
+      <c r="H66" t="n">
         <v>5.335999999999998</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,24 +3125,25 @@
         <v>1490</v>
       </c>
       <c r="G67" t="n">
+        <v>5.438666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>5.33533333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,24 +3167,25 @@
         <v>118579.9866</v>
       </c>
       <c r="G68" t="n">
+        <v>5.438000000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>5.331999999999997</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2979,24 +3209,25 @@
         <v>95</v>
       </c>
       <c r="G69" t="n">
+        <v>5.442666666666669</v>
+      </c>
+      <c r="H69" t="n">
         <v>5.328166666666664</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,24 +3251,25 @@
         <v>4942.0179</v>
       </c>
       <c r="G70" t="n">
+        <v>5.446666666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>5.32733333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3061,24 +3293,25 @@
         <v>95</v>
       </c>
       <c r="G71" t="n">
+        <v>5.450000000000002</v>
+      </c>
+      <c r="H71" t="n">
         <v>5.329833333333331</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,24 +3335,25 @@
         <v>482231.2815</v>
       </c>
       <c r="G72" t="n">
+        <v>5.444666666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>5.332166666666665</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,24 +3377,25 @@
         <v>80040.7902</v>
       </c>
       <c r="G73" t="n">
+        <v>5.431333333333336</v>
+      </c>
+      <c r="H73" t="n">
         <v>5.332999999999998</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,24 +3419,25 @@
         <v>93</v>
       </c>
       <c r="G74" t="n">
+        <v>5.431333333333336</v>
+      </c>
+      <c r="H74" t="n">
         <v>5.334333333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3225,24 +3461,25 @@
         <v>1281376.7901</v>
       </c>
       <c r="G75" t="n">
+        <v>5.424000000000002</v>
+      </c>
+      <c r="H75" t="n">
         <v>5.334333333333332</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,24 +3503,25 @@
         <v>65479.8716</v>
       </c>
       <c r="G76" t="n">
+        <v>5.422000000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.335166666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3307,24 +3545,25 @@
         <v>614.0688</v>
       </c>
       <c r="G77" t="n">
+        <v>5.426000000000002</v>
+      </c>
+      <c r="H77" t="n">
         <v>5.337833333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,24 +3587,25 @@
         <v>51495.7442</v>
       </c>
       <c r="G78" t="n">
+        <v>5.426666666666668</v>
+      </c>
+      <c r="H78" t="n">
         <v>5.336333333333331</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,24 +3629,25 @@
         <v>18785.5144</v>
       </c>
       <c r="G79" t="n">
+        <v>5.418000000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>5.333666666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,24 +3671,25 @@
         <v>36373.611</v>
       </c>
       <c r="G80" t="n">
+        <v>5.412666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>5.333999999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3471,24 +3713,25 @@
         <v>125854.1511</v>
       </c>
       <c r="G81" t="n">
+        <v>5.415333333333335</v>
+      </c>
+      <c r="H81" t="n">
         <v>5.336333333333331</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,24 +3755,25 @@
         <v>52224.5984</v>
       </c>
       <c r="G82" t="n">
+        <v>5.416666666666668</v>
+      </c>
+      <c r="H82" t="n">
         <v>5.338999999999998</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3553,24 +3797,25 @@
         <v>100057.9346</v>
       </c>
       <c r="G83" t="n">
+        <v>5.428000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>5.338166666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,24 +3839,25 @@
         <v>269279.6026</v>
       </c>
       <c r="G84" t="n">
+        <v>5.433333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>5.341166666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3635,24 +3881,25 @@
         <v>962324.0334</v>
       </c>
       <c r="G85" t="n">
+        <v>5.428000000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>5.341833333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,24 +3923,25 @@
         <v>114983.4246</v>
       </c>
       <c r="G86" t="n">
+        <v>5.421333333333335</v>
+      </c>
+      <c r="H86" t="n">
         <v>5.341833333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3717,24 +3965,25 @@
         <v>6490</v>
       </c>
       <c r="G87" t="n">
+        <v>5.416666666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>5.341999999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,24 +4007,25 @@
         <v>2471.4668</v>
       </c>
       <c r="G88" t="n">
+        <v>5.416000000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>5.342166666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3799,24 +4049,25 @@
         <v>130033.855</v>
       </c>
       <c r="G89" t="n">
+        <v>5.406000000000002</v>
+      </c>
+      <c r="H89" t="n">
         <v>5.342499999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,24 +4091,25 @@
         <v>164285.8775</v>
       </c>
       <c r="G90" t="n">
+        <v>5.409333333333335</v>
+      </c>
+      <c r="H90" t="n">
         <v>5.342833333333331</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,24 +4133,25 @@
         <v>496495.4199</v>
       </c>
       <c r="G91" t="n">
+        <v>5.404000000000002</v>
+      </c>
+      <c r="H91" t="n">
         <v>5.342333333333331</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,24 +4175,25 @@
         <v>1555947.6532</v>
       </c>
       <c r="G92" t="n">
+        <v>5.388000000000003</v>
+      </c>
+      <c r="H92" t="n">
         <v>5.341999999999998</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,24 +4217,27 @@
         <v>530443.091</v>
       </c>
       <c r="G93" t="n">
+        <v>5.37666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>5.342666666666664</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,24 +4261,27 @@
         <v>24767.225</v>
       </c>
       <c r="G94" t="n">
+        <v>5.371333333333337</v>
+      </c>
+      <c r="H94" t="n">
         <v>5.34433333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4045,24 +4305,25 @@
         <v>13651.5917</v>
       </c>
       <c r="G95" t="n">
+        <v>5.36066666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>5.345999999999997</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,24 +4347,25 @@
         <v>13651.5917</v>
       </c>
       <c r="G96" t="n">
+        <v>5.343333333333336</v>
+      </c>
+      <c r="H96" t="n">
         <v>5.347999999999997</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,24 +4389,25 @@
         <v>6911.4884</v>
       </c>
       <c r="G97" t="n">
+        <v>5.326000000000003</v>
+      </c>
+      <c r="H97" t="n">
         <v>5.34933333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,24 +4431,25 @@
         <v>395213.4705</v>
       </c>
       <c r="G98" t="n">
+        <v>5.303333333333336</v>
+      </c>
+      <c r="H98" t="n">
         <v>5.348499999999997</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,24 +4473,25 @@
         <v>182184.7729</v>
       </c>
       <c r="G99" t="n">
+        <v>5.284666666666669</v>
+      </c>
+      <c r="H99" t="n">
         <v>5.34933333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4250,24 +4515,27 @@
         <v>163.4407</v>
       </c>
       <c r="G100" t="n">
+        <v>5.282000000000003</v>
+      </c>
+      <c r="H100" t="n">
         <v>5.35133333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4291,24 +4559,25 @@
         <v>19228.3083</v>
       </c>
       <c r="G101" t="n">
+        <v>5.275333333333337</v>
+      </c>
+      <c r="H101" t="n">
         <v>5.352166666666664</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,24 +4601,25 @@
         <v>65566.2564</v>
       </c>
       <c r="G102" t="n">
+        <v>5.268000000000003</v>
+      </c>
+      <c r="H102" t="n">
         <v>5.352999999999997</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4373,24 +4643,25 @@
         <v>49174.6923</v>
       </c>
       <c r="G103" t="n">
+        <v>5.26066666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>5.353833333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,24 +4685,25 @@
         <v>14292.7232</v>
       </c>
       <c r="G104" t="n">
+        <v>5.259333333333336</v>
+      </c>
+      <c r="H104" t="n">
         <v>5.355333333333332</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,24 +4727,25 @@
         <v>13551.1513</v>
       </c>
       <c r="G105" t="n">
+        <v>5.25866666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>5.357499999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,24 +4769,25 @@
         <v>54012.7153</v>
       </c>
       <c r="G106" t="n">
+        <v>5.261333333333337</v>
+      </c>
+      <c r="H106" t="n">
         <v>5.359833333333331</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,24 +4811,25 @@
         <v>18681.7194</v>
       </c>
       <c r="G107" t="n">
+        <v>5.25866666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>5.360666666666664</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,24 +4853,25 @@
         <v>35073.2835</v>
       </c>
       <c r="G108" t="n">
+        <v>5.255333333333336</v>
+      </c>
+      <c r="H108" t="n">
         <v>5.361166666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4619,24 +4895,25 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
+        <v>5.254000000000003</v>
+      </c>
+      <c r="H109" t="n">
         <v>5.361166666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,24 +4937,25 @@
         <v>100</v>
       </c>
       <c r="G110" t="n">
+        <v>5.25666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>5.360999999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,24 +4979,25 @@
         <v>171900.9786</v>
       </c>
       <c r="G111" t="n">
+        <v>5.25666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.360333333333331</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,24 +5021,25 @@
         <v>221791.1189</v>
       </c>
       <c r="G112" t="n">
+        <v>5.259333333333337</v>
+      </c>
+      <c r="H112" t="n">
         <v>5.360166666666665</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,24 +5063,25 @@
         <v>10679.8742</v>
       </c>
       <c r="G113" t="n">
+        <v>5.271333333333337</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.360166666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,24 +5105,25 @@
         <v>3437.2666</v>
       </c>
       <c r="G114" t="n">
+        <v>5.282666666666671</v>
+      </c>
+      <c r="H114" t="n">
         <v>5.360833333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4865,24 +5147,25 @@
         <v>288.7357</v>
       </c>
       <c r="G115" t="n">
+        <v>5.288000000000005</v>
+      </c>
+      <c r="H115" t="n">
         <v>5.361166666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,24 +5189,25 @@
         <v>89014.01880000001</v>
       </c>
       <c r="G116" t="n">
+        <v>5.298666666666671</v>
+      </c>
+      <c r="H116" t="n">
         <v>5.361333333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,24 +5231,25 @@
         <v>2535.8563</v>
       </c>
       <c r="G117" t="n">
+        <v>5.309333333333337</v>
+      </c>
+      <c r="H117" t="n">
         <v>5.359666666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,24 +5273,25 @@
         <v>12228.1437</v>
       </c>
       <c r="G118" t="n">
+        <v>5.320000000000004</v>
+      </c>
+      <c r="H118" t="n">
         <v>5.356999999999998</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,24 +5315,25 @@
         <v>988.1509</v>
       </c>
       <c r="G119" t="n">
+        <v>5.329333333333337</v>
+      </c>
+      <c r="H119" t="n">
         <v>5.356499999999997</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5070,24 +5357,25 @@
         <v>21678.5151</v>
       </c>
       <c r="G120" t="n">
+        <v>5.338000000000004</v>
+      </c>
+      <c r="H120" t="n">
         <v>5.357499999999997</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5111,24 +5399,25 @@
         <v>3265.4032</v>
       </c>
       <c r="G121" t="n">
+        <v>5.349333333333337</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.359166666666664</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,24 +5441,25 @@
         <v>66458.5714</v>
       </c>
       <c r="G122" t="n">
+        <v>5.368000000000004</v>
+      </c>
+      <c r="H122" t="n">
         <v>5.360166666666663</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,24 +5483,25 @@
         <v>74515.67999999999</v>
       </c>
       <c r="G123" t="n">
+        <v>5.387333333333337</v>
+      </c>
+      <c r="H123" t="n">
         <v>5.361499999999996</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,24 +5525,25 @@
         <v>383.8236</v>
       </c>
       <c r="G124" t="n">
+        <v>5.404000000000004</v>
+      </c>
+      <c r="H124" t="n">
         <v>5.361833333333329</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,24 +5567,25 @@
         <v>54516.3878</v>
       </c>
       <c r="G125" t="n">
+        <v>5.416000000000003</v>
+      </c>
+      <c r="H125" t="n">
         <v>5.361499999999996</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,24 +5609,25 @@
         <v>249567.0386</v>
       </c>
       <c r="G126" t="n">
+        <v>5.423333333333336</v>
+      </c>
+      <c r="H126" t="n">
         <v>5.359666666666663</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5357,24 +5651,25 @@
         <v>6353.9016</v>
       </c>
       <c r="G127" t="n">
+        <v>5.428000000000003</v>
+      </c>
+      <c r="H127" t="n">
         <v>5.357499999999996</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5398,24 +5693,25 @@
         <v>21772.1923</v>
       </c>
       <c r="G128" t="n">
+        <v>5.431333333333337</v>
+      </c>
+      <c r="H128" t="n">
         <v>5.358499999999996</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5439,24 +5735,27 @@
         <v>52097.0657</v>
       </c>
       <c r="G129" t="n">
+        <v>5.431333333333337</v>
+      </c>
+      <c r="H129" t="n">
         <v>5.357999999999996</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5480,24 +5779,27 @@
         <v>10679.8742</v>
       </c>
       <c r="G130" t="n">
+        <v>5.430000000000004</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.356999999999997</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5521,24 +5823,27 @@
         <v>1000</v>
       </c>
       <c r="G131" t="n">
+        <v>5.430666666666671</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.356499999999996</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,24 +5867,27 @@
         <v>5000</v>
       </c>
       <c r="G132" t="n">
+        <v>5.431333333333338</v>
+      </c>
+      <c r="H132" t="n">
         <v>5.356333333333328</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5603,24 +5911,27 @@
         <v>282.0578</v>
       </c>
       <c r="G133" t="n">
+        <v>5.432000000000005</v>
+      </c>
+      <c r="H133" t="n">
         <v>5.357166666666661</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,24 +5955,27 @@
         <v>109062.3164</v>
       </c>
       <c r="G134" t="n">
+        <v>5.430000000000005</v>
+      </c>
+      <c r="H134" t="n">
         <v>5.356166666666661</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5685,24 +5999,25 @@
         <v>383.6233</v>
       </c>
       <c r="G135" t="n">
+        <v>5.436000000000005</v>
+      </c>
+      <c r="H135" t="n">
         <v>5.360499999999994</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5726,24 +6041,25 @@
         <v>27515.4969</v>
       </c>
       <c r="G136" t="n">
+        <v>5.432666666666672</v>
+      </c>
+      <c r="H136" t="n">
         <v>5.361833333333327</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,24 +6083,25 @@
         <v>0.0001</v>
       </c>
       <c r="G137" t="n">
+        <v>5.426000000000005</v>
+      </c>
+      <c r="H137" t="n">
         <v>5.360166666666661</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5808,24 +6125,25 @@
         <v>383.8236</v>
       </c>
       <c r="G138" t="n">
+        <v>5.419333333333339</v>
+      </c>
+      <c r="H138" t="n">
         <v>5.359666666666661</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5849,24 +6167,25 @@
         <v>3938.9456</v>
       </c>
       <c r="G139" t="n">
+        <v>5.414666666666673</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.360999999999994</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,24 +6209,25 @@
         <v>39921.4638</v>
       </c>
       <c r="G140" t="n">
+        <v>5.410000000000006</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.360833333333328</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5931,24 +6251,25 @@
         <v>7000</v>
       </c>
       <c r="G141" t="n">
+        <v>5.408666666666673</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.357999999999995</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5972,24 +6293,27 @@
         <v>41.3109</v>
       </c>
       <c r="G142" t="n">
+        <v>5.40733333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>5.355166666666663</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,24 +6337,27 @@
         <v>21923.5182</v>
       </c>
       <c r="G143" t="n">
+        <v>5.406000000000006</v>
+      </c>
+      <c r="H143" t="n">
         <v>5.352999999999996</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6054,24 +6381,27 @@
         <v>109335.9397</v>
       </c>
       <c r="G144" t="n">
+        <v>5.400666666666672</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.34983333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6095,24 +6425,27 @@
         <v>32089.1971</v>
       </c>
       <c r="G145" t="n">
+        <v>5.394666666666672</v>
+      </c>
+      <c r="H145" t="n">
         <v>5.348666666666662</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,24 +6469,27 @@
         <v>46887.3592</v>
       </c>
       <c r="G146" t="n">
+        <v>5.386666666666672</v>
+      </c>
+      <c r="H146" t="n">
         <v>5.347833333333329</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6177,24 +6513,27 @@
         <v>6000</v>
       </c>
       <c r="G147" t="n">
+        <v>5.381333333333339</v>
+      </c>
+      <c r="H147" t="n">
         <v>5.347499999999996</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6218,24 +6557,27 @@
         <v>7228.9477</v>
       </c>
       <c r="G148" t="n">
+        <v>5.373333333333338</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.346499999999995</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,24 +6601,27 @@
         <v>170658.7519</v>
       </c>
       <c r="G149" t="n">
+        <v>5.364000000000005</v>
+      </c>
+      <c r="H149" t="n">
         <v>5.345666666666662</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,24 +6645,27 @@
         <v>28690.2022</v>
       </c>
       <c r="G150" t="n">
+        <v>5.346666666666672</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.344833333333328</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6341,24 +6689,27 @@
         <v>39921.4638</v>
       </c>
       <c r="G151" t="n">
+        <v>5.336666666666671</v>
+      </c>
+      <c r="H151" t="n">
         <v>5.344999999999995</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6382,24 +6733,27 @@
         <v>46266.5915</v>
       </c>
       <c r="G152" t="n">
+        <v>5.326666666666671</v>
+      </c>
+      <c r="H152" t="n">
         <v>5.344833333333328</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6423,24 +6777,27 @@
         <v>123954.1794</v>
       </c>
       <c r="G153" t="n">
+        <v>5.318666666666671</v>
+      </c>
+      <c r="H153" t="n">
         <v>5.34516666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,24 +6821,27 @@
         <v>1372430.6081</v>
       </c>
       <c r="G154" t="n">
+        <v>5.320000000000005</v>
+      </c>
+      <c r="H154" t="n">
         <v>5.348166666666661</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6505,24 +6865,25 @@
         <v>200</v>
       </c>
       <c r="G155" t="n">
+        <v>5.326666666666671</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.352333333333328</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6546,24 +6907,25 @@
         <v>121913.353</v>
       </c>
       <c r="G156" t="n">
+        <v>5.338000000000005</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.35666666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6587,24 +6949,25 @@
         <v>167105.5694</v>
       </c>
       <c r="G157" t="n">
+        <v>5.360666666666671</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.363833333333328</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,24 +6991,25 @@
         <v>672511.6854</v>
       </c>
       <c r="G158" t="n">
+        <v>5.386000000000005</v>
+      </c>
+      <c r="H158" t="n">
         <v>5.373666666666661</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6669,24 +7033,25 @@
         <v>51656.8402</v>
       </c>
       <c r="G159" t="n">
+        <v>5.426000000000005</v>
+      </c>
+      <c r="H159" t="n">
         <v>5.385166666666661</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6710,25 +7075,26 @@
         <v>240226.2527</v>
       </c>
       <c r="G160" t="n">
+        <v>5.469333333333338</v>
+      </c>
+      <c r="H160" t="n">
         <v>5.395499999999995</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1.137581888246628</v>
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6751,18 +7117,25 @@
         <v>2015269.5714</v>
       </c>
       <c r="G161" t="n">
+        <v>5.505333333333338</v>
+      </c>
+      <c r="H161" t="n">
         <v>5.405333333333328</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6786,18 +7159,25 @@
         <v>70738.80039999999</v>
       </c>
       <c r="G162" t="n">
+        <v>5.540000000000005</v>
+      </c>
+      <c r="H162" t="n">
         <v>5.415499999999994</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,18 +7201,25 @@
         <v>185196.2095</v>
       </c>
       <c r="G163" t="n">
+        <v>5.572000000000005</v>
+      </c>
+      <c r="H163" t="n">
         <v>5.424333333333326</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6856,18 +7243,25 @@
         <v>48961.5989</v>
       </c>
       <c r="G164" t="n">
+        <v>5.604000000000005</v>
+      </c>
+      <c r="H164" t="n">
         <v>5.431833333333326</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6891,18 +7285,25 @@
         <v>120000</v>
       </c>
       <c r="G165" t="n">
+        <v>5.636000000000006</v>
+      </c>
+      <c r="H165" t="n">
         <v>5.43916666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,18 +7327,25 @@
         <v>13385.5692</v>
       </c>
       <c r="G166" t="n">
+        <v>5.664666666666673</v>
+      </c>
+      <c r="H166" t="n">
         <v>5.445833333333326</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6961,18 +7369,25 @@
         <v>1542.5496</v>
       </c>
       <c r="G167" t="n">
+        <v>5.684666666666672</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.451333333333325</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,18 +7411,25 @@
         <v>363419.1007</v>
       </c>
       <c r="G168" t="n">
+        <v>5.700000000000006</v>
+      </c>
+      <c r="H168" t="n">
         <v>5.456333333333325</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7031,18 +7453,25 @@
         <v>126972.1195</v>
       </c>
       <c r="G169" t="n">
+        <v>5.707333333333339</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.461499999999992</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7066,18 +7495,25 @@
         <v>1000</v>
       </c>
       <c r="G170" t="n">
+        <v>5.727333333333339</v>
+      </c>
+      <c r="H170" t="n">
         <v>5.469999999999993</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7101,18 +7537,25 @@
         <v>180</v>
       </c>
       <c r="G171" t="n">
+        <v>5.730666666666673</v>
+      </c>
+      <c r="H171" t="n">
         <v>5.475166666666659</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7136,18 +7579,25 @@
         <v>42356.8402</v>
       </c>
       <c r="G172" t="n">
+        <v>5.72533333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>5.480333333333325</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7171,18 +7621,25 @@
         <v>50000.0597</v>
       </c>
       <c r="G173" t="n">
+        <v>5.72333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>5.486666666666659</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7206,18 +7663,25 @@
         <v>167847.4869</v>
       </c>
       <c r="G174" t="n">
+        <v>5.724000000000006</v>
+      </c>
+      <c r="H174" t="n">
         <v>5.495499999999992</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7241,18 +7705,25 @@
         <v>42985.56</v>
       </c>
       <c r="G175" t="n">
+        <v>5.716000000000006</v>
+      </c>
+      <c r="H175" t="n">
         <v>5.502499999999992</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7276,18 +7747,25 @@
         <v>54852.3285</v>
       </c>
       <c r="G176" t="n">
+        <v>5.714000000000007</v>
+      </c>
+      <c r="H176" t="n">
         <v>5.509166666666659</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7311,18 +7789,25 @@
         <v>2179040.2659</v>
       </c>
       <c r="G177" t="n">
+        <v>5.72333333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>5.518999999999993</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7346,18 +7831,25 @@
         <v>3234.7108</v>
       </c>
       <c r="G178" t="n">
+        <v>5.737333333333339</v>
+      </c>
+      <c r="H178" t="n">
         <v>5.528666666666661</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7381,18 +7873,25 @@
         <v>22638.42761926298</v>
       </c>
       <c r="G179" t="n">
+        <v>5.752000000000006</v>
+      </c>
+      <c r="H179" t="n">
         <v>5.537499999999994</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7416,20 +7915,25 @@
         <v>213328.3137</v>
       </c>
       <c r="G180" t="n">
+        <v>5.76533333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>5.545999999999994</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7451,18 +7955,21 @@
         <v>33657.287</v>
       </c>
       <c r="G181" t="n">
+        <v>5.77733333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>5.552833333333327</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,18 +7993,21 @@
         <v>22472.0884</v>
       </c>
       <c r="G182" t="n">
+        <v>5.80133333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>5.559666666666661</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7521,18 +8031,21 @@
         <v>142867.4967629195</v>
       </c>
       <c r="G183" t="n">
+        <v>5.828000000000006</v>
+      </c>
+      <c r="H183" t="n">
         <v>5.566499999999994</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7556,18 +8069,21 @@
         <v>184274.8388</v>
       </c>
       <c r="G184" t="n">
+        <v>5.846000000000005</v>
+      </c>
+      <c r="H184" t="n">
         <v>5.571999999999994</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7591,18 +8107,21 @@
         <v>74804.5254</v>
       </c>
       <c r="G185" t="n">
+        <v>5.854000000000005</v>
+      </c>
+      <c r="H185" t="n">
         <v>5.579499999999994</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,18 +8145,21 @@
         <v>315456.5148</v>
       </c>
       <c r="G186" t="n">
+        <v>5.878000000000005</v>
+      </c>
+      <c r="H186" t="n">
         <v>5.588833333333327</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7661,18 +8183,21 @@
         <v>527.0848999999999</v>
       </c>
       <c r="G187" t="n">
+        <v>5.893333333333339</v>
+      </c>
+      <c r="H187" t="n">
         <v>5.596666666666661</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7696,18 +8221,21 @@
         <v>41642.7437</v>
       </c>
       <c r="G188" t="n">
+        <v>5.907333333333338</v>
+      </c>
+      <c r="H188" t="n">
         <v>5.605666666666662</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7731,18 +8259,21 @@
         <v>20526.5002</v>
       </c>
       <c r="G189" t="n">
+        <v>5.903333333333338</v>
+      </c>
+      <c r="H189" t="n">
         <v>5.613499999999994</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7766,18 +8297,21 @@
         <v>1231531.562987434</v>
       </c>
       <c r="G190" t="n">
+        <v>5.915333333333337</v>
+      </c>
+      <c r="H190" t="n">
         <v>5.623833333333327</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7801,18 +8335,21 @@
         <v>36461.703</v>
       </c>
       <c r="G191" t="n">
+        <v>5.928000000000003</v>
+      </c>
+      <c r="H191" t="n">
         <v>5.633499999999995</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7836,18 +8373,21 @@
         <v>186928.8048821824</v>
       </c>
       <c r="G192" t="n">
+        <v>5.925333333333337</v>
+      </c>
+      <c r="H192" t="n">
         <v>5.642499999999996</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7871,18 +8411,21 @@
         <v>22511.6153</v>
       </c>
       <c r="G193" t="n">
+        <v>5.917333333333336</v>
+      </c>
+      <c r="H193" t="n">
         <v>5.649999999999996</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7906,18 +8449,21 @@
         <v>29321.0189</v>
       </c>
       <c r="G194" t="n">
+        <v>5.908666666666671</v>
+      </c>
+      <c r="H194" t="n">
         <v>5.657166666666662</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7941,18 +8487,21 @@
         <v>8689.939700000001</v>
       </c>
       <c r="G195" t="n">
+        <v>5.901333333333337</v>
+      </c>
+      <c r="H195" t="n">
         <v>5.662333333333328</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7976,18 +8525,21 @@
         <v>44765.6694</v>
       </c>
       <c r="G196" t="n">
+        <v>5.895333333333337</v>
+      </c>
+      <c r="H196" t="n">
         <v>5.668499999999995</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8011,18 +8563,21 @@
         <v>133031.622</v>
       </c>
       <c r="G197" t="n">
+        <v>5.88866666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>5.675333333333328</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8046,18 +8601,21 @@
         <v>4154.1415</v>
       </c>
       <c r="G198" t="n">
+        <v>5.885333333333337</v>
+      </c>
+      <c r="H198" t="n">
         <v>5.682999999999995</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8081,18 +8639,21 @@
         <v>265269.1413</v>
       </c>
       <c r="G199" t="n">
+        <v>5.89266666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>5.691499999999994</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8116,18 +8677,21 @@
         <v>2155301.567230384</v>
       </c>
       <c r="G200" t="n">
+        <v>5.899333333333337</v>
+      </c>
+      <c r="H200" t="n">
         <v>5.701833333333328</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8151,18 +8715,21 @@
         <v>93291.80286280991</v>
       </c>
       <c r="G201" t="n">
+        <v>5.901333333333338</v>
+      </c>
+      <c r="H201" t="n">
         <v>5.711999999999994</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8186,18 +8753,21 @@
         <v>3748.7227</v>
       </c>
       <c r="G202" t="n">
+        <v>5.905333333333338</v>
+      </c>
+      <c r="H202" t="n">
         <v>5.721166666666662</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8221,18 +8791,21 @@
         <v>96918.2335</v>
       </c>
       <c r="G203" t="n">
+        <v>5.901333333333338</v>
+      </c>
+      <c r="H203" t="n">
         <v>5.729499999999995</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8256,18 +8829,21 @@
         <v>471636.8029</v>
       </c>
       <c r="G204" t="n">
+        <v>5.898666666666671</v>
+      </c>
+      <c r="H204" t="n">
         <v>5.737999999999995</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8291,18 +8867,21 @@
         <v>180645.1081</v>
       </c>
       <c r="G205" t="n">
+        <v>5.888666666666671</v>
+      </c>
+      <c r="H205" t="n">
         <v>5.747333333333328</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8326,18 +8905,21 @@
         <v>68572.6905</v>
       </c>
       <c r="G206" t="n">
+        <v>5.877333333333338</v>
+      </c>
+      <c r="H206" t="n">
         <v>5.756166666666662</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8361,18 +8943,21 @@
         <v>291352.0858</v>
       </c>
       <c r="G207" t="n">
+        <v>5.866000000000004</v>
+      </c>
+      <c r="H207" t="n">
         <v>5.763666666666662</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8396,18 +8981,21 @@
         <v>78096.63310000001</v>
       </c>
       <c r="G208" t="n">
+        <v>5.863333333333339</v>
+      </c>
+      <c r="H208" t="n">
         <v>5.772499999999996</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8431,18 +9019,21 @@
         <v>344</v>
       </c>
       <c r="G209" t="n">
+        <v>5.862000000000005</v>
+      </c>
+      <c r="H209" t="n">
         <v>5.781666666666663</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8466,18 +9057,21 @@
         <v>123334.3569</v>
       </c>
       <c r="G210" t="n">
+        <v>5.865333333333338</v>
+      </c>
+      <c r="H210" t="n">
         <v>5.791999999999996</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8501,18 +9095,21 @@
         <v>933872.008</v>
       </c>
       <c r="G211" t="n">
+        <v>5.885333333333337</v>
+      </c>
+      <c r="H211" t="n">
         <v>5.805666666666664</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8536,18 +9133,21 @@
         <v>1004546.6113</v>
       </c>
       <c r="G212" t="n">
+        <v>5.891333333333337</v>
+      </c>
+      <c r="H212" t="n">
         <v>5.816499999999997</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8571,18 +9171,21 @@
         <v>370709.4071</v>
       </c>
       <c r="G213" t="n">
+        <v>5.900666666666671</v>
+      </c>
+      <c r="H213" t="n">
         <v>5.828499999999996</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8606,18 +9209,21 @@
         <v>867302.0906</v>
       </c>
       <c r="G214" t="n">
+        <v>5.908666666666671</v>
+      </c>
+      <c r="H214" t="n">
         <v>5.838666666666664</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8641,18 +9247,21 @@
         <v>1254416.9702</v>
       </c>
       <c r="G215" t="n">
+        <v>5.916000000000005</v>
+      </c>
+      <c r="H215" t="n">
         <v>5.849166666666664</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8676,18 +9285,21 @@
         <v>505437.3132</v>
       </c>
       <c r="G216" t="n">
+        <v>5.930000000000005</v>
+      </c>
+      <c r="H216" t="n">
         <v>5.859999999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8711,18 +9323,21 @@
         <v>651058.8092500075</v>
       </c>
       <c r="G217" t="n">
+        <v>5.942000000000005</v>
+      </c>
+      <c r="H217" t="n">
         <v>5.866499999999998</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8746,18 +9361,21 @@
         <v>50174</v>
       </c>
       <c r="G218" t="n">
+        <v>5.947333333333339</v>
+      </c>
+      <c r="H218" t="n">
         <v>5.869833333333331</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8781,18 +9399,21 @@
         <v>37554.9096</v>
       </c>
       <c r="G219" t="n">
+        <v>5.95733333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>5.870833333333331</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8816,18 +9437,21 @@
         <v>53706.9818</v>
       </c>
       <c r="G220" t="n">
+        <v>5.971333333333339</v>
+      </c>
+      <c r="H220" t="n">
         <v>5.872833333333331</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8851,18 +9475,21 @@
         <v>181956.0674</v>
       </c>
       <c r="G221" t="n">
+        <v>5.986666666666673</v>
+      </c>
+      <c r="H221" t="n">
         <v>5.876499999999997</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8886,18 +9513,21 @@
         <v>93849.5064</v>
       </c>
       <c r="G222" t="n">
+        <v>6.000000000000006</v>
+      </c>
+      <c r="H222" t="n">
         <v>5.878666666666665</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8921,18 +9551,21 @@
         <v>112433.7364</v>
       </c>
       <c r="G223" t="n">
+        <v>6.010666666666673</v>
+      </c>
+      <c r="H223" t="n">
         <v>5.882166666666666</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8956,18 +9589,21 @@
         <v>135877.8728</v>
       </c>
       <c r="G224" t="n">
+        <v>6.01733333333334</v>
+      </c>
+      <c r="H224" t="n">
         <v>5.885</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8991,18 +9627,21 @@
         <v>14496.9562</v>
       </c>
       <c r="G225" t="n">
+        <v>6.015333333333341</v>
+      </c>
+      <c r="H225" t="n">
         <v>5.886833333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9026,18 +9665,21 @@
         <v>656544.623</v>
       </c>
       <c r="G226" t="n">
+        <v>5.99533333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>5.888333333333334</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9061,18 +9703,21 @@
         <v>171965.0224</v>
       </c>
       <c r="G227" t="n">
+        <v>5.987333333333341</v>
+      </c>
+      <c r="H227" t="n">
         <v>5.892166666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9096,18 +9741,21 @@
         <v>7646.4684</v>
       </c>
       <c r="G228" t="n">
+        <v>5.972666666666674</v>
+      </c>
+      <c r="H228" t="n">
         <v>5.896666666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9131,18 +9779,21 @@
         <v>5812.9598</v>
       </c>
       <c r="G229" t="n">
+        <v>5.956000000000008</v>
+      </c>
+      <c r="H229" t="n">
         <v>5.900833333333334</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9166,18 +9817,21 @@
         <v>111724.8647</v>
       </c>
       <c r="G230" t="n">
+        <v>5.934000000000007</v>
+      </c>
+      <c r="H230" t="n">
         <v>5.900833333333334</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9201,18 +9855,21 @@
         <v>96</v>
       </c>
       <c r="G231" t="n">
+        <v>5.918000000000006</v>
+      </c>
+      <c r="H231" t="n">
         <v>5.906833333333334</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9236,18 +9893,21 @@
         <v>96</v>
       </c>
       <c r="G232" t="n">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="H232" t="n">
         <v>5.910166666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,18 +9931,21 @@
         <v>4102.0852</v>
       </c>
       <c r="G233" t="n">
+        <v>5.892666666666671</v>
+      </c>
+      <c r="H233" t="n">
         <v>5.912166666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9306,18 +9969,21 @@
         <v>2545.7873</v>
       </c>
       <c r="G234" t="n">
+        <v>5.886000000000005</v>
+      </c>
+      <c r="H234" t="n">
         <v>5.911333333333334</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9341,18 +10007,21 @@
         <v>17726.9119</v>
       </c>
       <c r="G235" t="n">
+        <v>5.872666666666671</v>
+      </c>
+      <c r="H235" t="n">
         <v>5.912000000000002</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9376,18 +10045,21 @@
         <v>999.7599</v>
       </c>
       <c r="G236" t="n">
+        <v>5.860000000000003</v>
+      </c>
+      <c r="H236" t="n">
         <v>5.913000000000001</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9411,18 +10083,401 @@
         <v>92242.7939</v>
       </c>
       <c r="G237" t="n">
+        <v>5.849333333333337</v>
+      </c>
+      <c r="H237" t="n">
         <v>5.910166666666668</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E238" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F238" t="n">
+        <v>500</v>
+      </c>
+      <c r="G238" t="n">
+        <v>5.846666666666669</v>
+      </c>
+      <c r="H238" t="n">
+        <v>5.9095</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C239" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D239" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F239" t="n">
+        <v>197461.1269</v>
+      </c>
+      <c r="G239" t="n">
+        <v>5.855333333333336</v>
+      </c>
+      <c r="H239" t="n">
+        <v>5.910833333333334</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F240" t="n">
+        <v>72911.6691</v>
+      </c>
+      <c r="G240" t="n">
+        <v>5.864000000000003</v>
+      </c>
+      <c r="H240" t="n">
+        <v>5.911500000000001</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3344.7457</v>
+      </c>
+      <c r="G241" t="n">
+        <v>5.86866666666667</v>
+      </c>
+      <c r="H241" t="n">
+        <v>5.911166666666668</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C242" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D242" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F242" t="n">
+        <v>16317.904</v>
+      </c>
+      <c r="G242" t="n">
+        <v>5.883333333333336</v>
+      </c>
+      <c r="H242" t="n">
+        <v>5.912666666666667</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C243" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F243" t="n">
+        <v>143887.973</v>
+      </c>
+      <c r="G243" t="n">
+        <v>5.887333333333336</v>
+      </c>
+      <c r="H243" t="n">
+        <v>5.911500000000001</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C244" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F244" t="n">
+        <v>12690.3226</v>
+      </c>
+      <c r="G244" t="n">
+        <v>5.89866666666667</v>
+      </c>
+      <c r="H244" t="n">
+        <v>5.914000000000001</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C245" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F245" t="n">
+        <v>55963.1906</v>
+      </c>
+      <c r="G245" t="n">
+        <v>5.912000000000003</v>
+      </c>
+      <c r="H245" t="n">
+        <v>5.915333333333335</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F246" t="n">
+        <v>107811.0122</v>
+      </c>
+      <c r="G246" t="n">
+        <v>5.90866666666667</v>
+      </c>
+      <c r="H246" t="n">
+        <v>5.914500000000001</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C247" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D247" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F247" t="n">
+        <v>106656.238</v>
+      </c>
+      <c r="G247" t="n">
+        <v>5.914000000000002</v>
+      </c>
+      <c r="H247" t="n">
+        <v>5.915333333333334</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest WET.xlsx
+++ b/BackTest/2019-11-20 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N305"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,19 @@
         <v>-45403949.2411</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.17</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,24 +917,23 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="J16" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>5.17</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1002,24 +958,23 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="J17" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1044,24 +999,23 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="J18" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,24 +1040,23 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="J19" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1128,24 +1081,23 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="J20" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1170,24 +1122,23 @@
         <v>-45445575.0614</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="J21" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,24 +1163,23 @@
         <v>-45410147.07979999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.11</v>
       </c>
       <c r="J22" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1254,24 +1204,23 @@
         <v>-45399222.4946</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="J23" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1296,24 +1245,23 @@
         <v>-45385906.8162</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="J24" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1338,24 +1286,23 @@
         <v>-45083438.3356</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="J25" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>5.17</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,20 +1329,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1422,20 +1368,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1462,20 +1407,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1502,20 +1446,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1542,20 +1485,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1582,20 +1524,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1622,20 +1563,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1662,20 +1602,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1702,20 +1641,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1742,20 +1680,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1782,20 +1719,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1822,20 +1758,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1862,20 +1797,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1902,20 +1836,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1942,20 +1875,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1982,20 +1914,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2022,20 +1953,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2062,20 +1992,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2102,20 +2031,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2142,20 +2070,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2182,20 +2109,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2222,20 +2148,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2262,20 +2187,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2302,20 +2226,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2342,20 +2265,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2382,20 +2304,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2422,20 +2343,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2462,20 +2382,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2502,20 +2421,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2542,20 +2460,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2582,20 +2499,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2622,20 +2538,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2662,20 +2577,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2702,20 +2616,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2742,20 +2655,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2782,20 +2694,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2822,20 +2733,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2862,20 +2772,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2902,20 +2811,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2940,22 +2848,21 @@
         <v>-26651991.52837519</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2982,20 +2889,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3022,20 +2928,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3062,20 +2967,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3102,20 +3006,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3142,20 +3045,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3182,20 +3084,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3222,20 +3123,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3262,20 +3162,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3302,20 +3201,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3342,20 +3240,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3382,20 +3279,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3422,20 +3318,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3462,20 +3357,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3502,20 +3396,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3542,20 +3435,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3582,20 +3474,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3622,20 +3513,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3662,20 +3552,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3702,20 +3591,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3742,20 +3630,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3782,20 +3669,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3822,20 +3708,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3862,20 +3747,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3902,20 +3786,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3942,20 +3825,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3982,20 +3864,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4022,20 +3903,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4062,20 +3942,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4102,20 +3981,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4142,20 +4020,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4182,20 +4059,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4222,20 +4098,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4262,20 +4137,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4302,20 +4176,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4342,20 +4215,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4382,20 +4254,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4422,20 +4293,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4462,20 +4332,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4502,20 +4371,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4542,20 +4410,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4582,20 +4449,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4622,20 +4488,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4662,20 +4527,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4702,20 +4566,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4742,20 +4605,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4782,20 +4644,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4822,20 +4683,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4862,20 +4722,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4902,20 +4761,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4942,20 +4800,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4982,20 +4839,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5022,20 +4878,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5062,20 +4917,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5102,20 +4956,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5142,20 +4995,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5182,20 +5034,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5222,20 +5073,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5262,20 +5112,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5302,20 +5151,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5342,20 +5190,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5382,20 +5229,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5422,20 +5268,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5462,20 +5307,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5502,20 +5346,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5542,20 +5385,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5582,20 +5424,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5622,20 +5463,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5662,20 +5502,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5702,20 +5541,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5742,20 +5580,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5782,20 +5619,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5822,20 +5658,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5862,20 +5697,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5902,20 +5736,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5942,20 +5775,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5982,20 +5814,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6022,20 +5853,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6062,20 +5892,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6102,20 +5931,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6142,20 +5970,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6182,20 +6009,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6222,20 +6048,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6262,20 +6087,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6302,20 +6126,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6342,20 +6165,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6382,20 +6204,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6422,20 +6243,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6462,20 +6282,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6502,20 +6321,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6542,20 +6360,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6582,20 +6399,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6622,20 +6438,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6662,20 +6477,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6702,20 +6516,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6742,20 +6555,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6782,20 +6594,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6822,20 +6633,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6862,20 +6672,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6902,20 +6711,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6942,20 +6750,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6982,20 +6789,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7022,20 +6828,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7062,20 +6867,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7102,20 +6906,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7142,20 +6945,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7182,20 +6984,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7222,20 +7023,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7262,20 +7062,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7302,20 +7101,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7342,20 +7140,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7382,20 +7179,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7422,20 +7218,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7462,20 +7257,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7502,20 +7296,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7542,20 +7335,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7582,20 +7374,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7620,22 +7411,23 @@
         <v>-35149929.70395323</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1.058829787234043</v>
       </c>
       <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>1.033268101761252</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7660,22 +7452,15 @@
         <v>-35204446.09175323</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7702,20 +7487,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7742,20 +7520,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7782,20 +7553,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7822,20 +7586,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7862,20 +7619,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7902,20 +7652,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7942,20 +7685,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7982,20 +7718,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8022,20 +7751,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8062,20 +7784,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8102,20 +7817,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8142,20 +7850,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8182,20 +7883,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8220,22 +7914,15 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8262,20 +7949,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8302,20 +7982,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8342,20 +8015,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8382,20 +8048,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8422,20 +8081,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8462,20 +8114,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8502,20 +8147,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8542,20 +8180,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8582,20 +8213,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8622,20 +8246,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8662,20 +8279,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8702,20 +8312,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8742,20 +8345,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8782,20 +8378,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8822,20 +8411,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8862,20 +8444,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8902,20 +8477,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8940,22 +8508,15 @@
         <v>-33949487.52455324</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8980,22 +8541,15 @@
         <v>-33276975.83915324</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9020,20 +8574,15 @@
         <v>-33225318.99895324</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L217" t="n">
+        <v>1</v>
       </c>
       <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9058,18 +8607,15 @@
         <v>-32985092.74625324</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9094,18 +8640,15 @@
         <v>-35000362.31765324</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9130,18 +8673,15 @@
         <v>-34929623.51725324</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9166,18 +8706,15 @@
         <v>-35114819.72675324</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9204,16 +8741,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9240,16 +8774,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9276,16 +8807,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9310,18 +8838,15 @@
         <v>-35178709.44445324</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9348,16 +8873,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9384,16 +8906,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9418,18 +8937,15 @@
         <v>-35414156.42565324</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9456,16 +8972,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9490,18 +9003,15 @@
         <v>-35371979.58545324</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9526,18 +9036,15 @@
         <v>-35321979.52575324</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9562,18 +9069,15 @@
         <v>-35154132.03885324</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9598,18 +9102,15 @@
         <v>-35197117.59885325</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9636,16 +9137,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9672,16 +9170,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9708,16 +9203,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9742,18 +9234,15 @@
         <v>-33076164.37225325</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9778,18 +9267,15 @@
         <v>-33289492.68595325</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9814,18 +9300,15 @@
         <v>-33323149.97295325</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9850,18 +9333,15 @@
         <v>-33300677.88455325</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9886,18 +9366,15 @@
         <v>-33300677.88455325</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9922,18 +9399,15 @@
         <v>-33484952.72335325</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9958,18 +9432,15 @@
         <v>-33410148.19795325</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9994,18 +9465,15 @@
         <v>-33410148.19795325</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10030,18 +9498,15 @@
         <v>-33410675.28285325</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10068,16 +9533,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10102,18 +9564,15 @@
         <v>-33389559.03935324</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10140,16 +9599,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10174,18 +9630,15 @@
         <v>-32194489.17936581</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10212,16 +9665,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10248,16 +9698,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10284,16 +9731,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10320,16 +9764,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10356,16 +9797,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10392,16 +9830,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10428,16 +9863,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10464,16 +9896,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10500,16 +9929,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10536,16 +9962,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10572,16 +9995,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10608,16 +10028,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10644,16 +10061,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10680,16 +10094,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10716,16 +10127,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10752,16 +10160,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10788,16 +10193,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10824,16 +10226,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10860,16 +10259,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10896,16 +10292,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10932,16 +10325,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10968,16 +10358,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11004,16 +10391,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11040,16 +10424,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11076,16 +10457,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11112,16 +10490,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11146,18 +10521,15 @@
         <v>-28337401.68743042</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11182,18 +10554,15 @@
         <v>-28299846.77783042</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11220,16 +10589,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11256,16 +10622,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11292,16 +10655,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11326,18 +10686,15 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11364,16 +10721,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11400,16 +10754,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11436,16 +10787,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11472,16 +10820,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11508,16 +10853,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11544,16 +10886,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11580,16 +10919,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11616,16 +10952,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11652,16 +10985,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11688,16 +11018,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11724,16 +11051,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11760,16 +11084,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11796,16 +11117,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11832,16 +11150,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11868,16 +11183,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11904,16 +11216,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11940,16 +11249,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11976,16 +11282,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12012,16 +11315,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12048,16 +11348,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12084,16 +11381,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12120,16 +11414,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12156,16 +11447,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12192,18 +11480,15 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest WET.xlsx
+++ b/BackTest/2019-11-20 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,14 +880,10 @@
         <v>-45403949.2411</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -917,19 +913,11 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -958,19 +946,15 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>5.15</v>
       </c>
       <c r="J17" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.15</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -999,17 +983,17 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.15</v>
       </c>
       <c r="J18" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1040,17 +1024,17 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>5.15</v>
       </c>
       <c r="J19" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1081,19 +1065,15 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>5.12</v>
       </c>
       <c r="J20" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.12</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1122,17 +1102,17 @@
         <v>-45445575.0614</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>5.12</v>
       </c>
       <c r="J21" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1163,17 +1143,17 @@
         <v>-45410147.07979999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>5.11</v>
       </c>
       <c r="J22" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1204,19 +1184,15 @@
         <v>-45399222.4946</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>5.12</v>
       </c>
       <c r="J23" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.12</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1245,17 +1221,17 @@
         <v>-45385906.8162</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>5.23</v>
       </c>
       <c r="J24" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1286,17 +1262,15 @@
         <v>-45083438.3356</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1330,14 +1304,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1369,14 +1337,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1408,14 +1370,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1447,14 +1403,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1486,14 +1436,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1525,14 +1469,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1564,14 +1502,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1603,14 +1535,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1642,14 +1568,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1681,14 +1601,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1720,14 +1634,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1759,14 +1667,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1795,15 +1697,15 @@
         <v>-31233928.78817519</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1834,12 +1736,12 @@
         <v>-30728349.38917519</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,9 +1778,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,9 +1815,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,9 +1852,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1993,9 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2032,9 +1926,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2071,9 +1963,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2110,9 +2000,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2149,9 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,9 +2074,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,9 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,9 +2148,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2305,9 +2185,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2344,9 +2222,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2383,9 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2422,9 +2296,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,9 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,9 +2370,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2539,9 +2407,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2578,9 +2444,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2617,9 +2481,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,9 +2518,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2695,9 +2555,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,9 +2592,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,9 +2629,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,12 +2663,12 @@
         <v>-26536693.52837519</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,12 +2702,10 @@
         <v>-26651991.52837519</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,9 +2742,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,9 +2779,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,9 +2816,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,9 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,12 +2887,12 @@
         <v>-31136057.18497519</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,12 +2926,12 @@
         <v>-30938158.43597519</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,12 +2965,12 @@
         <v>-30897201.86137519</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,9 +3007,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,9 +3044,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,9 +3081,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,9 +3118,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3155,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,9 +3192,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,9 +3229,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,9 +3266,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,9 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,9 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,9 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,9 +3414,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,9 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,9 +3488,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,9 +3525,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,9 +3562,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,9 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,9 +3636,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,9 +3673,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,9 +3747,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,9 +3784,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,9 +3821,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,9 +3858,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,9 +3895,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,9 +3932,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,9 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +4043,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +4080,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,9 +4117,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,9 +4154,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,9 +4191,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,9 +4228,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,9 +4265,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,9 +4302,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,9 +4339,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,9 +4376,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4413,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,9 +4450,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,9 +4487,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,9 +4524,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,9 +4561,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,9 +4598,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,9 +4635,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,9 +4672,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4957,9 +4709,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,9 +4746,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,9 +4783,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,9 +4820,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,9 +4857,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,9 +4894,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,9 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,9 +4968,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,9 +5005,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,9 +5042,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +5079,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,9 +5116,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,9 +5153,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,9 +5190,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,9 +5227,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,9 +5264,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5581,9 +5301,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,9 +5338,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,9 +5375,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,9 +5412,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,12 +5446,12 @@
         <v>-34760525.08975322</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,9 +5488,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,12 +5522,12 @@
         <v>-34860583.02435322</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,12 +5561,12 @@
         <v>-34860583.02435322</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,12 +5600,12 @@
         <v>-35822907.05775322</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,12 +5639,12 @@
         <v>-35937890.48235322</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,12 +5678,12 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,12 +5717,12 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,12 +5756,12 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,12 +5795,12 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,12 +5834,12 @@
         <v>-36557929.75725321</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,12 +5873,12 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,12 +5912,12 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,12 +5951,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,12 +5990,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,12 +6029,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,12 +6068,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6397,12 +6107,12 @@
         <v>-35421962.79955322</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6436,12 +6146,12 @@
         <v>-35239778.02665322</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,12 +6185,12 @@
         <v>-35239614.58595321</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,12 +6224,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,12 +6263,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,12 +6302,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,12 +6341,12 @@
         <v>-35244550.17105322</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,12 +6380,12 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,12 +6419,12 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,9 +6461,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,9 +6498,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6829,9 +6535,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,9 +6572,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,9 +6609,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,9 +6646,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,9 +6683,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7024,9 +6720,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,9 +6757,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,9 +6794,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,9 +6831,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,9 +6868,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,9 +6905,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,9 +6942,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7297,9 +6979,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,9 +7016,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7375,9 +7053,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,23 +7087,19 @@
         <v>-35149929.70395323</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.058829787234043</v>
-      </c>
-      <c r="M182" t="n">
-        <v>1.033268101761252</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7452,11 +7124,15 @@
         <v>-35204446.09175323</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7489,7 +7165,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7522,7 +7202,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7555,7 +7239,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7588,7 +7276,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7621,7 +7313,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7654,7 +7350,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7687,7 +7387,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7720,7 +7424,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7753,7 +7461,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7786,7 +7498,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7819,7 +7535,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7852,7 +7572,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7885,7 +7609,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7914,11 +7642,17 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>5.43</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +7681,17 @@
         <v>-35432776.34365322</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>5.43</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7980,11 +7720,17 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>5.42</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8013,11 +7759,17 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>5.36</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8046,11 +7798,17 @@
         <v>-35461699.86185323</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>5.36</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8079,11 +7837,17 @@
         <v>-35571035.80155323</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8112,11 +7876,17 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>5.29</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8145,11 +7915,17 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7954,17 @@
         <v>-35597124.99865323</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8211,11 +7993,17 @@
         <v>-35604353.94635323</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8244,11 +8032,17 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8277,11 +8071,17 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>5.27</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8310,11 +8110,17 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>5.27</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8343,11 +8149,17 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8376,11 +8188,17 @@
         <v>-35611137.05505323</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8409,11 +8227,17 @@
         <v>-34238706.44695324</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>5.31</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8442,11 +8266,17 @@
         <v>-34238506.44695324</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>5.45</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8475,11 +8305,17 @@
         <v>-34116593.09395324</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>5.52</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +8344,17 @@
         <v>-33949487.52455324</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>5.53</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8541,11 +8383,15 @@
         <v>-33276975.83915324</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8574,11 +8420,15 @@
         <v>-33225318.99895324</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8607,11 +8457,15 @@
         <v>-32985092.74625324</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8640,11 +8494,15 @@
         <v>-35000362.31765324</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8673,11 +8531,15 @@
         <v>-34929623.51725324</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8706,11 +8568,15 @@
         <v>-35114819.72675324</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8743,7 +8609,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8776,7 +8646,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8809,7 +8683,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8838,11 +8716,15 @@
         <v>-35178709.44445324</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8875,7 +8757,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8908,7 +8794,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +8827,15 @@
         <v>-35414156.42565324</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8974,7 +8868,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +8901,15 @@
         <v>-35371979.58545324</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9036,11 +8938,15 @@
         <v>-35321979.52575324</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +8975,15 @@
         <v>-35154132.03885324</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +9012,15 @@
         <v>-35197117.59885325</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9139,7 +9053,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9172,7 +9090,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9205,7 +9127,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +9160,15 @@
         <v>-33076164.37225325</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +9197,15 @@
         <v>-33289492.68595325</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9300,11 +9234,15 @@
         <v>-33323149.97295325</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9333,11 +9271,15 @@
         <v>-33300677.88455325</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +9308,15 @@
         <v>-33300677.88455325</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +9345,15 @@
         <v>-33484952.72335325</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9432,11 +9382,15 @@
         <v>-33410148.19795325</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9465,11 +9419,15 @@
         <v>-33410148.19795325</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +9456,15 @@
         <v>-33410675.28285325</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9535,7 +9497,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9564,11 +9530,15 @@
         <v>-33389559.03935324</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9601,7 +9571,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9630,11 +9604,15 @@
         <v>-32194489.17936581</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9667,7 +9645,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9700,7 +9682,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +9719,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9766,7 +9756,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9799,7 +9793,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9832,7 +9830,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9865,7 +9867,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9898,7 +9904,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9931,7 +9941,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9964,7 +9978,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9997,7 +10015,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10030,7 +10052,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10063,7 +10089,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10096,7 +10126,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10129,7 +10163,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10162,7 +10200,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10195,7 +10237,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10228,7 +10274,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10261,7 +10311,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10294,7 +10348,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10323,14 +10381,16 @@
         <v>-30634034.65928041</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
@@ -10356,7 +10416,7 @@
         <v>-30263325.25218041</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10389,7 +10449,7 @@
         <v>-29396023.16158041</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10422,7 +10482,7 @@
         <v>-28141606.19138042</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10455,7 +10515,7 @@
         <v>-27636168.87818041</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10488,7 +10548,7 @@
         <v>-28287227.68743042</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10521,7 +10581,7 @@
         <v>-28337401.68743042</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10554,7 +10614,7 @@
         <v>-28299846.77783042</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10587,7 +10647,7 @@
         <v>-28246139.79603042</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10620,7 +10680,7 @@
         <v>-28428095.86343042</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10653,7 +10713,7 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10686,7 +10746,7 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10719,7 +10779,7 @@
         <v>-28657823.24263042</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10752,7 +10812,7 @@
         <v>-28672320.19883042</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10785,7 +10845,7 @@
         <v>-29328864.82183042</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10818,7 +10878,7 @@
         <v>-29156899.79943042</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10851,7 +10911,7 @@
         <v>-29156899.79943042</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10884,7 +10944,7 @@
         <v>-29156899.79943042</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10917,7 +10977,7 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10950,7 +11010,7 @@
         <v>-29045078.93473042</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10983,7 +11043,7 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11016,7 +11076,7 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11049,7 +11109,7 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11082,7 +11142,7 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11115,7 +11175,7 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11148,7 +11208,7 @@
         <v>-29134871.94133042</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11181,7 +11241,7 @@
         <v>-29134371.94133042</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11214,7 +11274,7 @@
         <v>-28936910.81443042</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11247,7 +11307,7 @@
         <v>-29009822.48353042</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11280,7 +11340,7 @@
         <v>-29013167.22923043</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11313,7 +11373,7 @@
         <v>-28996849.32523043</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11346,7 +11406,7 @@
         <v>-29140737.29823043</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11379,7 +11439,7 @@
         <v>-29128046.97563043</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11412,7 +11472,7 @@
         <v>-29072083.78503043</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11445,7 +11505,7 @@
         <v>-29179894.79723043</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11478,7 +11538,7 @@
         <v>-29073238.55923043</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11489,6 +11549,6 @@
       <c r="M305" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest WET.xlsx
+++ b/BackTest/2019-11-20 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,11 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,14 +1045,10 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1102,19 +1078,11 @@
         <v>-45445575.0614</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1143,19 +1111,11 @@
         <v>-45410147.07979999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1184,14 +1144,10 @@
         <v>-45399222.4946</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1221,19 +1177,11 @@
         <v>-45385906.8162</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1265,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1697,17 +1639,11 @@
         <v>-31233928.78817519</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1736,17 +1672,11 @@
         <v>-30728349.38917519</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1779,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1890,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1927,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1960,15 +1870,11 @@
         <v>-25333086.71287519</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1997,15 +1903,11 @@
         <v>-25393950.56987519</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2034,15 +1936,11 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2071,15 +1969,11 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2112,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2149,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2186,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2223,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2256,15 +2134,11 @@
         <v>-25458356.49307519</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2297,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2334,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2408,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2445,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2482,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2519,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2556,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2593,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2630,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2663,17 +2497,11 @@
         <v>-26536693.52837519</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2702,15 +2530,11 @@
         <v>-26651991.52837519</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2739,15 +2563,11 @@
         <v>-27852191.27737519</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2776,15 +2596,11 @@
         <v>-27852102.27737519</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2813,15 +2629,11 @@
         <v>-28429035.78647519</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2850,15 +2662,11 @@
         <v>-29532025.05067519</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2887,17 +2695,11 @@
         <v>-31136057.18497519</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2926,17 +2728,11 @@
         <v>-30938158.43597519</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2965,17 +2761,11 @@
         <v>-30897201.86137519</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3004,15 +2794,11 @@
         <v>-30930990.14807519</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3041,15 +2827,11 @@
         <v>-30659309.06057519</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3082,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3156,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3193,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3230,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3267,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3304,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3341,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3378,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3415,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3452,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3489,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3600,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3711,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3748,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3855,15 +3553,15 @@
         <v>-33759234.75835323</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3892,13 +3590,17 @@
         <v>-33877117.37075323</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3929,10 +3631,14 @@
         <v>-33588455.68845323</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3966,10 +3672,14 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,10 +3713,14 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,10 +3754,14 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,7 +3798,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,7 +3837,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,10 +3873,14 @@
         <v>-33430906.34265323</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,10 +3914,14 @@
         <v>-33388290.23295323</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,7 +3958,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,7 +3997,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,7 +4036,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4339,7 +4075,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,7 +4114,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4413,7 +4153,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,7 +4192,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,7 +4231,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4524,7 +4270,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4561,7 +4309,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4598,7 +4348,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4635,7 +4387,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4672,7 +4426,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,7 +4465,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4746,7 +4504,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4783,7 +4543,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4820,7 +4582,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4857,7 +4621,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,7 +4660,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4931,7 +4699,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4968,7 +4738,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,7 +4777,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5042,7 +4816,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5079,7 +4855,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5116,7 +4894,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,7 +4933,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,7 +4972,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5227,7 +5011,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,7 +5050,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5301,7 +5089,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5338,7 +5128,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,7 +5167,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,7 +5206,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,12 +5242,12 @@
         <v>-34760525.08975322</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,7 +5284,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5522,12 +5320,12 @@
         <v>-34860583.02435322</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,12 +5359,12 @@
         <v>-34860583.02435322</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,12 +5398,12 @@
         <v>-35822907.05775322</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,12 +5437,12 @@
         <v>-35937890.48235322</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5678,12 +5476,12 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5717,12 +5515,12 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,12 +5554,12 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5795,12 +5593,12 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5834,12 +5632,12 @@
         <v>-36557929.75725321</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5873,12 +5671,12 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5912,12 +5710,12 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5951,12 +5749,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5990,12 +5788,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,12 +5827,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6068,12 +5866,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6107,12 +5905,12 @@
         <v>-35421962.79955322</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6146,12 +5944,12 @@
         <v>-35239778.02665322</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6185,12 +5983,12 @@
         <v>-35239614.58595321</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,12 +6022,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6263,12 +6061,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,12 +6100,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6341,12 +6139,12 @@
         <v>-35244550.17105322</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6380,12 +6178,12 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6419,12 +6217,12 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,7 +6259,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6498,7 +6298,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,7 +6337,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6572,7 +6376,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6609,7 +6415,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6646,7 +6454,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6683,7 +6493,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6720,7 +6532,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,7 +6571,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,7 +6610,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,7 +6649,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,7 +6688,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6905,7 +6727,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6942,7 +6766,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6979,7 +6805,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7016,7 +6844,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7053,7 +6883,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,7 +6922,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,7 +6961,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7164,7 +7000,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,7 +7039,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,7 +7078,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,7 +7117,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,7 +7156,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7349,7 +7195,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7386,7 +7234,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,7 +7273,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7460,7 +7312,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7497,7 +7351,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7534,7 +7390,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,7 +7429,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,7 +7468,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7642,12 +7504,12 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7681,12 +7543,12 @@
         <v>-35432776.34365322</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,12 +7582,12 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,12 +7621,12 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7798,12 +7660,12 @@
         <v>-35461699.86185323</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7837,12 +7699,12 @@
         <v>-35571035.80155323</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7876,12 +7738,12 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,12 +7777,12 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7954,12 +7816,12 @@
         <v>-35597124.99865323</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7993,12 +7855,12 @@
         <v>-35604353.94635323</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8032,12 +7894,12 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8071,12 +7933,12 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8110,12 +7972,12 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8149,12 +8011,12 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8188,12 +8050,12 @@
         <v>-35611137.05505323</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8227,12 +8089,12 @@
         <v>-34238706.44695324</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,12 +8128,12 @@
         <v>-34238506.44695324</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,12 +8167,12 @@
         <v>-34116593.09395324</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8344,12 +8206,12 @@
         <v>-33949487.52455324</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,7 +8248,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,7 +8287,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,7 +8326,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8497,7 +8365,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8534,7 +8404,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,7 +8443,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8608,7 +8482,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8645,7 +8521,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8682,7 +8560,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8719,7 +8599,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,7 +8638,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8793,7 +8677,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,7 +8716,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,7 +8755,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8904,7 +8794,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8941,7 +8833,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8978,7 +8872,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9015,7 +8911,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9052,7 +8950,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9089,7 +8989,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9126,7 +9028,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9163,7 +9067,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9200,7 +9106,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,7 +9145,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9274,7 +9184,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,7 +9223,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9348,7 +9262,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9385,7 +9301,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9422,7 +9340,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9459,7 +9379,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,7 +9418,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,7 +9457,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9570,7 +9496,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9607,7 +9535,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9644,7 +9574,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9681,7 +9613,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,7 +9652,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9755,7 +9691,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9792,7 +9730,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9829,7 +9769,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9866,7 +9808,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9903,7 +9847,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9940,7 +9886,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9977,7 +9925,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10014,7 +9964,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10051,7 +10003,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,7 +10042,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10125,7 +10081,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10162,7 +10120,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,7 +10159,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10236,7 +10198,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10273,7 +10237,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10310,7 +10276,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10347,7 +10315,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,16 +10351,20 @@
         <v>-30634034.65928041</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L270" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
       <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
@@ -10416,11 +10390,17 @@
         <v>-30263325.25218041</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10449,11 +10429,17 @@
         <v>-29396023.16158041</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10482,11 +10468,17 @@
         <v>-28141606.19138042</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10515,11 +10507,17 @@
         <v>-27636168.87818041</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10548,11 +10546,17 @@
         <v>-28287227.68743042</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10581,11 +10585,17 @@
         <v>-28337401.68743042</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10614,11 +10624,17 @@
         <v>-28299846.77783042</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10647,11 +10663,17 @@
         <v>-28246139.79603042</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10680,11 +10702,17 @@
         <v>-28428095.86343042</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10713,11 +10741,17 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10746,11 +10780,17 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10779,11 +10819,17 @@
         <v>-28657823.24263042</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10812,11 +10858,17 @@
         <v>-28672320.19883042</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +10897,17 @@
         <v>-29328864.82183042</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10878,11 +10936,17 @@
         <v>-29156899.79943042</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10911,11 +10975,17 @@
         <v>-29156899.79943042</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +11014,17 @@
         <v>-29156899.79943042</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +11053,17 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +11092,17 @@
         <v>-29045078.93473042</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11043,11 +11131,17 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11076,11 +11170,17 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +11209,17 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +11248,17 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +11287,17 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11208,11 +11326,17 @@
         <v>-29134871.94133042</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +11365,17 @@
         <v>-29134371.94133042</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11274,11 +11404,17 @@
         <v>-28936910.81443042</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +11443,17 @@
         <v>-29009822.48353042</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11340,11 +11482,17 @@
         <v>-29013167.22923043</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11373,11 +11521,17 @@
         <v>-28996849.32523043</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11406,11 +11560,17 @@
         <v>-29140737.29823043</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +11599,17 @@
         <v>-29128046.97563043</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11472,11 +11638,17 @@
         <v>-29072083.78503043</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11505,11 +11677,17 @@
         <v>-29179894.79723043</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11538,17 +11716,23 @@
         <v>-29073238.55923043</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
       <c r="M305" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest WET.xlsx
+++ b/BackTest/2019-11-20 BackTest WET.xlsx
@@ -1078,10 +1078,14 @@
         <v>-45445575.0614</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.12</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1111,11 +1115,19 @@
         <v>-45410147.07979999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1156,19 @@
         <v>-45399222.4946</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1296,17 @@
         <v>-69662087.4558</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.29</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1339,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1372,17 @@
         <v>-62993263.6922</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.3</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1411,17 @@
         <v>-62989200.59817518</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1450,17 @@
         <v>-62937200.59817518</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.32</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1493,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1526,17 @@
         <v>-41976486.45237519</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1569,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1606,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1643,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1680,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1717,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1754,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1791,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1828,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1865,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1902,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1939,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1972,15 @@
         <v>-25333086.71287519</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2009,15 @@
         <v>-25393950.56987519</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2046,15 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2083,15 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2124,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2161,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2198,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2235,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2268,15 @@
         <v>-25458356.49307519</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2309,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2346,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2383,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2420,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2457,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2494,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2531,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2568,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2605,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2642,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2679,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2712,15 @@
         <v>-26651991.52837519</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2749,15 @@
         <v>-27852191.27737519</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2786,15 @@
         <v>-27852102.27737519</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2823,15 @@
         <v>-28429035.78647519</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2860,15 @@
         <v>-29532025.05067519</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2897,15 @@
         <v>-31136057.18497519</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2934,15 @@
         <v>-30938158.43597519</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2971,15 @@
         <v>-30897201.86137519</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3008,15 @@
         <v>-30930990.14807519</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3045,15 @@
         <v>-30659309.06057519</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3086,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3123,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3160,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3197,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3234,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3271,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3308,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3345,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3382,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3419,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3456,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3493,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3530,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3567,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3604,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3641,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3678,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3715,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3752,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3789,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3826,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,15 +3859,15 @@
         <v>-33759234.75835323</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,17 +3896,13 @@
         <v>-33877117.37075323</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3631,14 +3933,10 @@
         <v>-33588455.68845323</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3672,14 +3970,10 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,14 +4007,10 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="J100" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,14 +4044,10 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,9 +4084,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,9 +4121,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3873,14 +4155,10 @@
         <v>-33430906.34265323</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,14 +4192,10 @@
         <v>-33388290.23295323</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="J105" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3958,9 +4232,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3997,9 +4269,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,9 +4306,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4075,9 +4343,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4114,9 +4380,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,9 +4417,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,9 +4454,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,9 +4491,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,9 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,9 +4565,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4348,9 +4602,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4387,9 +4639,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,9 +4676,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,9 +4713,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,9 +4750,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,9 +4787,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4582,9 +4824,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,12 +4858,12 @@
         <v>-32962383.42775323</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,9 +4900,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,12 +4934,12 @@
         <v>-32961466.70315323</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4735,12 +4973,12 @@
         <v>-33080046.68975323</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,12 +5012,12 @@
         <v>-33079951.68975323</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,12 +5051,12 @@
         <v>-33075009.67185323</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,12 +5090,12 @@
         <v>-33075009.67185323</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,9 +5132,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,12 +5166,12 @@
         <v>-33637281.74355323</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,12 +5205,12 @@
         <v>-33637188.74355323</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,12 +5244,12 @@
         <v>-34918565.53365323</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,12 +5283,12 @@
         <v>-34853085.66205323</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,12 +5322,12 @@
         <v>-34852471.59325323</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,9 +5364,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,9 +5401,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5203,12 +5435,12 @@
         <v>-34886379.24085322</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,9 +5477,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,9 +5514,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5323,9 +5551,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5362,9 +5588,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5401,9 +5625,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5440,9 +5662,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,12 +5696,12 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5515,12 +5735,12 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5554,12 +5774,12 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5593,12 +5813,12 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5632,12 +5852,12 @@
         <v>-36557929.75725321</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5671,12 +5891,12 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5710,12 +5930,12 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5749,12 +5969,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5788,12 +6008,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5827,12 +6047,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5866,12 +6086,12 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5905,12 +6125,12 @@
         <v>-35421962.79955322</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,12 +6164,12 @@
         <v>-35239778.02665322</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,12 +6203,12 @@
         <v>-35239614.58595321</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,12 +6242,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6061,12 +6281,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,12 +6320,12 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,12 +6359,12 @@
         <v>-35244550.17105322</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6178,12 +6398,12 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,12 +6437,12 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,12 +6476,12 @@
         <v>-35249680.73915322</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,12 +6515,12 @@
         <v>-35284754.02265322</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,12 +6554,12 @@
         <v>-35284654.02265322</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6373,12 +6593,12 @@
         <v>-35284554.02265322</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6415,9 +6635,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,9 +6672,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6493,9 +6709,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6529,12 +6743,12 @@
         <v>-35220546.74155322</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6568,12 +6782,12 @@
         <v>-35220258.00585323</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6607,12 +6821,12 @@
         <v>-35220258.00585323</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,9 +6863,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6688,9 +6900,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6727,9 +6937,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,9 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6802,12 +7008,12 @@
         <v>-35216004.45175323</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6841,12 +7047,12 @@
         <v>-35149545.88035323</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,9 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6919,12 +7123,12 @@
         <v>-35149929.70395323</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6958,12 +7162,12 @@
         <v>-35204446.09175323</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,12 +7201,12 @@
         <v>-35454013.13035323</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,12 +7240,12 @@
         <v>-35454013.13035323</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7075,12 +7279,12 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7114,12 +7318,12 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7153,12 +7357,12 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,12 +7396,12 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7231,12 +7435,12 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7270,12 +7474,12 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7309,12 +7513,12 @@
         <v>-35365723.00625323</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7348,12 +7552,12 @@
         <v>-35365339.38295323</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,12 +7591,12 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7426,12 +7630,12 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,12 +7669,12 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,12 +7708,12 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,12 +7747,12 @@
         <v>-35432776.34365322</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,12 +7786,12 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,12 +7825,12 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,12 +7864,12 @@
         <v>-35461699.86185323</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,12 +7903,12 @@
         <v>-35571035.80155323</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7738,12 +7942,12 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,12 +7981,12 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,12 +8020,12 @@
         <v>-35597124.99865323</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,12 +8059,12 @@
         <v>-35604353.94635323</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,12 +8098,12 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7933,12 +8137,12 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,12 +8176,12 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8011,12 +8215,12 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8050,12 +8254,12 @@
         <v>-35611137.05505323</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8089,12 +8293,12 @@
         <v>-34238706.44695324</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8128,12 +8332,12 @@
         <v>-34238506.44695324</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8167,12 +8371,12 @@
         <v>-34116593.09395324</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,12 +8410,12 @@
         <v>-33949487.52455324</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8245,12 +8449,12 @@
         <v>-33276975.83915324</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,9 +8491,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,9 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,9 +8565,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8404,9 +8602,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,9 +8639,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8482,9 +8676,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8521,9 +8713,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,9 +8750,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,9 +8787,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,9 +8824,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8674,12 +8858,12 @@
         <v>-35415156.42565324</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,12 +8897,12 @@
         <v>-35414156.42565324</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,9 +8939,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,9 +8976,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,12 +9010,12 @@
         <v>-35321979.52575324</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,9 +9052,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,9 +9089,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,9 +9126,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,9 +9163,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,9 +9200,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9064,20 +9234,16 @@
         <v>-33076164.37225325</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5.19</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
@@ -9103,17 +9269,11 @@
         <v>-33289492.68595325</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9142,17 +9302,11 @@
         <v>-33323149.97295325</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9184,14 +9338,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9220,17 +9368,11 @@
         <v>-33300677.88455325</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9259,17 +9401,11 @@
         <v>-33484952.72335325</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9301,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9340,14 +9470,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9376,17 +9500,11 @@
         <v>-33410675.28285325</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9418,14 +9536,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9457,14 +9569,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9496,14 +9602,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9532,17 +9632,11 @@
         <v>-32194489.17936581</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9571,17 +9665,11 @@
         <v>-32381417.98424799</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9610,17 +9698,11 @@
         <v>-32403929.59954799</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9652,14 +9734,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9691,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9730,14 +9800,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9769,14 +9833,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9808,14 +9866,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9847,14 +9899,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9883,17 +9929,11 @@
         <v>-29920259.81581761</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9922,17 +9962,11 @@
         <v>-30013551.61868041</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9961,17 +9995,11 @@
         <v>-30017300.34138041</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10003,14 +10031,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10042,14 +10064,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10081,14 +10097,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10120,14 +10130,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10159,14 +10163,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10198,14 +10196,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10237,14 +10229,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10276,14 +10262,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10315,14 +10295,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10351,17 +10325,11 @@
         <v>-30634034.65928041</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10390,17 +10358,11 @@
         <v>-30263325.25218041</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10429,17 +10391,11 @@
         <v>-29396023.16158041</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10468,17 +10424,11 @@
         <v>-28141606.19138042</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10507,17 +10457,11 @@
         <v>-27636168.87818041</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10546,17 +10490,11 @@
         <v>-28287227.68743042</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10585,17 +10523,11 @@
         <v>-28337401.68743042</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10624,17 +10556,11 @@
         <v>-28299846.77783042</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10663,17 +10589,11 @@
         <v>-28246139.79603042</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10702,17 +10622,11 @@
         <v>-28428095.86343042</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10741,17 +10655,11 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10780,17 +10688,11 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10819,17 +10721,11 @@
         <v>-28657823.24263042</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10858,17 +10754,11 @@
         <v>-28672320.19883042</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10897,17 +10787,11 @@
         <v>-29328864.82183042</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10939,14 +10823,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10978,14 +10856,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11017,14 +10889,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11056,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11095,14 +10955,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11131,17 +10985,11 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11170,17 +11018,11 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11212,14 +11054,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11251,14 +11087,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11287,17 +11117,11 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11329,14 +11153,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11368,14 +11186,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11404,17 +11216,11 @@
         <v>-28936910.81443042</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11443,17 +11249,11 @@
         <v>-29009822.48353042</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11482,17 +11282,11 @@
         <v>-29013167.22923043</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11521,17 +11315,11 @@
         <v>-28996849.32523043</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11560,17 +11348,11 @@
         <v>-29140737.29823043</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11599,17 +11381,11 @@
         <v>-29128046.97563043</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11638,17 +11414,11 @@
         <v>-29072083.78503043</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11677,17 +11447,11 @@
         <v>-29179894.79723043</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11716,17 +11480,11 @@
         <v>-29073238.55923043</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
